--- a/dataset/pairs/method_no_hint/prefered_rejected_pairs_part8.xlsx
+++ b/dataset/pairs/method_no_hint/prefered_rejected_pairs_part8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>000333d1-cc05-42b1-81c2-e5470f9d718a</t>
+          <t>کمبود کدام ویتامین منجر به اسیدوز لاکتیک می‌شود؟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -515,7 +515,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>636c0d49-d70b-41c7-98de-6abc9e044e65</t>
+          <t>درست/نادرست در مورد مدیریت پای دیابتی: 1. کنترل دقیق دیابت 2. سیستم وریدی معمولاً درگیر است 3. آنتی‌بیوتیک‌های موضعی استفاده می‌شوند 4. باید قطع عضو زودرس انجام شود 5. زخم‌های دیابتی، زخم‌های تروفیک هستند</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -563,7 +563,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a3c3a2d5-7598-48fd-8f6c-ad629ed7cc31</t>
+          <t>یک کودک 10 ساله دچار توده بیضه می‌شود و تحت عمل ارکیکتومی قرار می‌گیرد. در برش، توده ظاهر و رنگ‌های متنوعی نشان می‌دهد. در بررسی هیستولوژیک، بافت‌های مختلفی از جمله غضروف، تیروئید و بافت عصبی دیده می‌شود. یک کانون کوچک از کارسینوم سلول سنگفرشی واضح نیز مشاهده می‌شود. کدام یک از گزینه‌های زیر مناسب‌ترین طبقه‌بندی برای این تومور است؟</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d05dbe40-f281-4b57-a1f8-72559463b570</t>
+          <t>بیماری ناشی از کمبود ویتامین که در جمعیت مصرف کننده ذرت دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -677,7 +677,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>765b8c80-9d66-40b6-bfbb-3793262d8b93</t>
+          <t>آزمون گله در چه شرایطی انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -727,7 +727,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>63f7983e-11a0-4189-ae11-71b2486a0a7e</t>
+          <t>عامل پیش‌آگهی در آسیب سر کدام است؟</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -776,7 +776,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7298a0f2-058e-4d40-86cc-1577c87f129f</t>
+          <t>یک فرد 32 ساله پس از 2 هفته از شروع اسهال به بیمارستان مراجعه می‌کند. تشخیص تیفوئید را می‌توان با کدام روش تأیید کرد؟</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -822,7 +822,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dc9c5eb7-c2c7-4cf6-9509-dbc41841f64f</t>
+          <t>روش تجویز فوسفنی توئین -</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>f2ba6ebd-d1a4-484c-a176-cf44923bcbb5</t>
+          <t>شایع ترین تومور بدخیم پلک ها کدام است؟</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>d0615de7-6f9e-4bc6-bc30-14c3760427be</t>
+          <t>یک باغبان چندین وزیکول روی دست و چندین ضایعه در امتداد مجاری لنفاوی دارد. شایع ترین قارچ مسئول کدام است؟</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -974,7 +974,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>f40e6647-478c-47e4-a766-b300e3f97823</t>
+          <t>تیروئید ابرانت جانبی از کدام گزینه ناشی می‌شود؟</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1034,7 +1034,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>e1baa7f6-1104-4440-8721-7d29b80c7161</t>
+          <t>در مورد آزمایش سرولوژیک برای تشخیص عفونت hiv، مثبت شدن زودهنگام elisa به دلیل کدام مورد است؟</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1085,7 +1085,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3f1659a2-13cb-47ae-a802-e0842006e619</t>
+          <t>شایع‌ترین علت خونریزی دستگاه گوارش تحتانی در بزرگسالان چیست؟</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>b33a6a62-88c2-418f-a1df-e0490f457c39</t>
+          <t>کدام ۲ آنزیم اضافی برای بتا اکسیداسیون اسیدهای چرب غیراشباع (pufa) مورد نیاز است؟</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>f6f819c6-bb16-4605-91e4-4f2a4019986f</t>
+          <t>یک بیمار زن 23 ساله از کاهش توانایی باز کردن دهان از 4 روز پیش شکایت دارد. این ممکن است به دلیل چه باشد؟</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>0a122f4c-afff-4f80-b875-34fb7fb15b56</t>
+          <t>کدام یک از ویژگی‌های ترک کافئین نیست؟</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1304,7 +1304,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>cf327e20-4b17-4c75-93b4-d3600885832b</t>
+          <t>کدام یک از تاندون‌های زیر از زیر رتیناکولوم اکستانسور عبور نمی‌کند؟</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1359,7 +1359,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4685e7af-ffef-4acb-bd5c-53c8af6d5591</t>
+          <t>درمان انتخابی در بیمار مبتلا به آمبولی ریوی شدید همراه با شوک چیست؟</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1405,7 +1405,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>e58359d0-0674-41fb-a596-7b551c4ef2b7</t>
+          <t>یک دندان کشیده شده در کدام کیسه دور انداخته می‌شود؟</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1457,7 +1457,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>c04db3dc-fc35-4f0f-a5c9-fc20be723b2a</t>
+          <t>داروهای مورد استفاده در عفونت mrsa شامل همه موارد زیر هستند به جز: مارس 2012</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1505,7 +1505,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>340d9118-6a27-4282-b46b-06d63f1fd425</t>
+          <t>پالس پارادوکس یک ویژگی مشخص کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>84e95971-819e-4247-a5df-0bce3c454700</t>
+          <t>کدام رشته‌های عصبی کم‌ترین حساسیت را به فشار دارند؟</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1594,7 +1594,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>658088b6-9a4d-4459-8780-2b1268a8d9c7</t>
+          <t>ایریتیس رزئاتا در کدام بیماری دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1643,7 +1643,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4606b481-62b4-4441-bafa-2ba5bac58e5d</t>
+          <t>علامت دوروزیه در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1695,7 +1695,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8d7fa9d7-af76-416e-a8d9-d6640a839701</t>
+          <t>فِلِگمون چیست؟</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1747,7 +1747,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>743067b5-25c3-44c8-9abd-a9372657fb9c</t>
+          <t>کدام یک از موارد زیر مهم‌ترین عامل تعیین‌کننده پیش‌آگهی در فتق دیافراگماتیک مادرزادی نوزادان (cdh) است؟</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1804,7 +1804,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>c9224419-ce4d-4cc5-8381-f027883eb2dc</t>
+          <t>مناطق کارسینومای مخاط دهان را می‌توان با رنگ‌آمیزی با کدام ماده شناسایی کرد؟</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1856,7 +1856,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>f2674fe4-5b62-4ea9-8931-b9d91dcedbe0</t>
+          <t>کدام یک از موارد زیر معمولاً در تصویربرداری mri با ماده حاجب gd-dtpa، افزایش نشانه‌دار و همگن را نشان می‌دهند؟</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1901,7 +1901,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>e22b14dd-2002-4b95-b23f-b3499b5038f2</t>
+          <t>همه موارد زیر با بیماری کارولی مرتبط هستند، به جز:</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>f0eec116-e716-447d-9a1a-641a1faf5730</t>
+          <t>عملکرد میکروگلیا در سیستم عصبی مرکزی</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2005,7 +2005,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>40ea7a51-9d34-42b2-b7f1-acc85adf4164</t>
+          <t>'ریه کوچک‌شونده' ویژگی کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2054,7 +2054,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>7a1dfd78-e2f9-47df-9f29-61bc9e564974</t>
+          <t>شایع ترین یافته هماتولوژیک مرتبط با سل ریوی کدام است؟</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2109,7 +2109,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>c77a7750-58bb-42d1-a881-3a1910cd532a</t>
+          <t>کدام یک از موارد زیر ویژگی ماراسموس است و نه کواشیورکور؟</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2169,7 +2169,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>9a85c2c2-cd63-4ee8-81d6-4122c03db463</t>
+          <t>کدام یک از آزمایش‌های زیر برای بررسی کارایی پاستوریزاسیون شیر استفاده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2216,7 +2216,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>90845d4e-4e9e-42dd-8e9f-37467b27a358</t>
+          <t>ph واژن در یک زن در سن باروری چقدر است؟</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2266,7 +2266,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>d44a8745-b8b3-47f1-93cc-cf150eb14ef0</t>
+          <t>در طول دیاستول، کدام یک از موارد زیر فشار شریانی را حفظ می‌کند؟</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2322,7 +2322,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>af78d7d3-cb7a-4c9e-ad22-cfe40be06df8</t>
+          <t>زافیرلوکاست که در بیماران مبتلا به آسم استفاده می‌شود، از طریق چه مکانیسمی عمل می‌کند؟</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2371,7 +2371,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>a852e596-aa3c-4cff-a6a2-38eb3f8b6004</t>
+          <t>کدام ویروس از طریق هماتوژن و عصبی منتشر می‌شود؟ سپتامبر 2007</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>caa044a5-1c87-439b-96ab-805acec92271</t>
+          <t>سل مثبت خلطی چیست؟</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2471,7 +2471,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3d0eea44-1657-493e-a41d-830d43e9d58d</t>
+          <t>تریاد هاچینسون شامل همه موارد زیر است به جز</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2523,7 +2523,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>27ea5dc3-8df2-41b8-98ac-cc86a5572e15</t>
+          <t>در درمان کم خونی مگالوبلاستیک بدون تشخیص قطعی، ویتامین b12 و اسید فولیک باید با هم تجویز شوند زیرا:</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2577,7 +2577,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>b31d7ef0-ee2e-4d96-a0af-c06ad3157577</t>
+          <t>بررسی تنها سطوح صورتی دندان های قدامی، با استفاده از یک ماده آشکارساز فوشین پایه، در کدام یک از شاخص های زیر انجام می شود؟</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2632,7 +2632,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>bb286773-2e31-4887-9073-d66698c459b9</t>
+          <t>یک نوزاد 45 روزه دچار زردانی شد و دو روز بعد علائم و نشانه‌های نارسایی حاد کبد ظاهر شد. کودک از نظر hbs ag مثبت بود. مادر نیز ناقل hbs ag بود. پروفایل سرولوژیکی هپاتیت b مادر به احتمال زیاد چیست؟</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2682,7 +2682,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>29fbe032-49b3-4627-9943-c65018ed714b</t>
+          <t>پالس پارادوکس در همه موارد زیر وجود دارد به جز:</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2732,7 +2732,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5667efb6-fdf1-45bf-a982-1f8cb9f8138c</t>
+          <t>پنتوزوری اساسی به دلیل کمبود کدام آنزیم رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2787,7 +2787,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>70477515-4fd0-4d00-b8a7-d920dfd49528</t>
+          <t>کدام یک از داروهای ضد پلاکت زیر، یک مهارکننده گیرنده p2y12 است که تحت تأثیر پلی مورفیسم cyp2c19 قرار نمی‌گیرد؟</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2836,7 +2836,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>088e0510-c5b8-479c-896c-ea885642759f</t>
+          <t>همه موارد زیر اختلالات شخصیت خوشه a هستند به جز:</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2888,7 +2888,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>d100d64a-031f-4324-ad1f-38295e1bded6</t>
+          <t>شاخک میانی بینی چیست؟</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2947,7 +2947,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>251a7b23-9f2a-4637-949d-47c5662284bd</t>
+          <t>توکسین اکسفولیاتیو a که باعث پوسته ریزی عمومی می‌شود توسط کدام یک از موارد زیر ترشح می‌شود؟</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3013,7 +3013,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>f96901d8-b54b-4d33-82e0-608caad50578</t>
+          <t>طبق دستورالعمل‌های aba در سال ۲۰۰۵، در مورد تعداد فشارهای قفسه سینه در احیای قلبی ریوی (cpr) کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3060,7 +3060,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>5519636c-49a7-439e-8b1d-6591176b63bb</t>
+          <t>لودانوزین متابولیت کدام دارو است؟</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3110,7 +3110,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>fea523b3-8b88-4269-a8da-3f514246fd5a</t>
+          <t>ریشه عصبی عصب پوستی میانی ران چیست؟</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3167,7 +3167,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>d43eb525-8d17-410f-b6f4-60721664beac</t>
+          <t>در مورد ویتامین k کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3217,7 +3217,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>c924c932-6fa5-441f-85ce-05c789f4afc8</t>
+          <t>نقطه شروع سنتز اجسام کتونی کدام است؟</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4474d669-a460-4a9c-93d5-813710bb2e73</t>
+          <t>همه موارد زیر از ویژگی های کزاز هستند، به جز</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3324,7 +3324,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ca907d57-07fe-4f2a-bf11-e80e3a9a168a</t>
+          <t>یک کودک سالم 5 ساله در حال انجام عمل جراحی استرابیسم با ماسک حنجره‌ای است. سی دقیقه پس از شروع عمل، ضربان قلب او 60 بار در دقیقه، فشار خون 90/60 میلی‌متر جیوه و اکسی‌ژن‌سنج 98% اشباع را نشان می‌دهد. مرحله بعدی در مدیریت چیست؟</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3369,7 +3369,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1c8d2c0b-e3af-413a-9382-0b2cf1017b1b</t>
+          <t>کدام یک از موارد زیر دارای توارث اتوزومی است؟</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3416,7 +3416,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0fdf5e74-8e90-4d73-a345-b956ddb6ea3e</t>
+          <t>برای شرایط پزشکی زیر، اختلالات اسید-باز مرتبط را انتخاب کنید. سپسیس</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3476,7 +3476,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>c9aad448-c172-4cbb-87af-4c7d49359361</t>
+          <t>از شما خواسته شده است که یک بیمار را در کلینیک نورولوژی ارزیابی کنید. معاینه عصبی شما علائم زیر را نشان می‌دهد: 1) از دست دادن حس درد و دما در سمت چپ صورت 2) از دست دادن حس درد و دما در بازو و پای راست و 3) حس لامسه و ارتعاش طبیعی در صورت، بدن و اندام‌ها. محل ضایعه کجاست؟</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3529,7 +3529,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ab44858a-54e9-4c4e-8e9d-06492017d522</t>
+          <t>کبد به هشت بخش تقسیم می‌شود. مجرای کبدی راست تمام بخش‌های زیر را تخلیه می‌کند، به جز:</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3580,7 +3580,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2f5f61ef-7c40-46f4-aabd-e2fcafc7c90e</t>
+          <t>کدام یک از عبارات زیر در مورد آنزیم های کبدی صحیح است؟</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3644,7 +3644,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4379112b-d842-4868-8708-4f10275f9b11</t>
+          <t>عوارض جانبی مصرف بیش از حد پتاسیم در کدام یک از افراد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3696,7 +3696,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7632e792-15c4-4ee5-8b25-bc233dca21c1</t>
+          <t>مقیاس درد (cheops) برای ارزیابی درد پس از عمل در کودکان شامل همه موارد زیر به جز کدام است؟</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3752,7 +3752,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>e3df8f1d-b1aa-4c4e-a840-27b74820ae94</t>
+          <t>پس از پیوند کبد، عود بیماری اولیه در کبد به احتمال زیاد در کدام مورد رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3804,7 +3804,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>f0b1a64c-3784-4deb-9b6c-10b0ef6eb573</t>
+          <t>رام پراشاد با عفونت تنفسی در بیمارستان گورو تگ بهادور بستری شده و آنتی‌بیوتیک توبرامایسین برای او تجویز شده است. کلیرانس و حجم توزیع توبرامایسین در او به ترتیب 160 میلی‌لیتر در دقیقه و 40 لیتر است. اگر بخواهید یک دوز بارگذاری داخل وریدی به رام پراشاد بدهید تا به غلظت درمانی پلاسمایی 4 میلی‌گرم در لیتر سریعاً دست یابد، چه مقداری باید تجویز شود؟</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3855,7 +3855,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>9fc31dbe-580f-4133-9d61-5ce5f1088c19</t>
+          <t>کدام یک از یافته‌های پس از مرگ در مسمومیت با مونوکسید کربن صحیح نیست؟</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3ad191cd-1c85-45ed-a0f0-0dcef4585aba</t>
+          <t>یک خانم با گالاکتوره و نقایص بینایی مراجعه می‌کند. بررسی مورد نیاز چیست؟</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3961,7 +3961,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>e5eb084a-2019-483b-b5aa-4acf6ca8df32</t>
+          <t>مینی‌پیل حاوی ۷۵ میکروگرم دزوژسترل برای پیشگیری از بارداری استفاده می‌شود. کدام یک از موارد زیر برنامه مصرف آن را نشان می‌دهد؟</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4023,7 +4023,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4362fd22-8108-480c-943f-3d4d017d18b6</t>
+          <t>کدام یک از موارد زیر از ویژگی‌های دیورتیکول مکل نیست؟</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4074,7 +4074,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>57fd04ac-d3f6-429c-8b12-059bc890a2b3</t>
+          <t>دستورالعمل‌های ایمن‌سازی در برابر بیماری‌های عفونی شامل همه موارد زیر می‌شود به جز</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4129,7 +4129,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>7dce8e87-7131-4276-a730-4ec29772febd</t>
+          <t>شایع‌ترین محل شکستگی در ریزش مایع مغزی-نخاعی از بینی (csf-rhinorrhoea) کدام است؟</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4191,7 +4191,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7a5b2d3e-8efa-4f30-ae49-91db4b5bc4d5</t>
+          <t>در بیماری جذام کدام یک از موارد زیر مشاهده نمی‌شود؟  
+الف) emg غیرطبیعی  
+ب) تحلیل عضلات ارادی  
+ج) کاهش حس عمقی  
+د) کاهش پاسخ به حس لامسه  
+ه) افزایش پاسخ به حس لامسه</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4246,7 +4251,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>26c424c5-8828-4f9d-8366-de4b86cf4b29</t>
+          <t>در سیرنگومیلی گردنی همه موارد زیر دیده می‌شوند به جز</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4294,7 +4299,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>997b6769-ec81-4a31-9541-affc47a9a0a8</t>
+          <t>در یک بیمار ترومایی که در حالت شوک است، 500 میلی‌لیتر نرمال سالین در مدت 5-10 دقیقه تجویز شده است. فشار خون به مدت 15 دقیقه بهبود یافته و سپس دوباره شروع به کاهش می‌کند. استنباط شما چیست؟</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4353,7 +4358,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>4c20ce2f-c04c-4ee5-8de8-5059463802b9</t>
+          <t>کدام یک از موارد زیر جزو ویژگی‌های سونوگرافی در تنگی مادرزادی پیلور هیپرتروفیک نیست؟</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4403,7 +4408,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1ddadcd5-6381-4657-b768-c0a9b89649f7</t>
+          <t>آکرودرماتیت انتروپاتیکا به دلیل کمبود کدام ماده است؟</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4457,7 +4462,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>b63f5666-c253-4f17-a259-2b0777b5e330</t>
+          <t>کمبود کدام عنصر کمیاب باعث بثورات اطراف دهان، آتروفی غدد جنسی، نوریت و رنگدانه‌سازی در چین‌های پوستی می‌شود؟</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4506,7 +4511,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>f8ca0f60-9e78-40bf-8b76-762d6947e64a</t>
+          <t>c-anca با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4567,7 +4572,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>fc07251d-35c0-4cb9-b156-8d303cf28a21</t>
+          <t>در مورد بیماری پاژه نوک پستان کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4630,7 +4635,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>e8007a1d-bda5-4dfb-a2d8-fb7631546e6e</t>
+          <t>در مورد نقص دیواره بین بطنی (vsd) همه موارد زیر صحیح است به جز -</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4681,7 +4686,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>57a28285-309c-46e1-9e99-4216cb0818f0</t>
+          <t>اولین محل درگیر در سل تناسلی کدام است؟</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4731,7 +4736,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>68c854bc-5abf-4d40-b709-b2c425eb3e7c</t>
+          <t>بیمار با ضریب هوشی 60 دارای چه سطحی از عقب ماندگی ذهنی است؟</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4782,7 +4787,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>b5f2c4b6-5215-4c89-a649-59beec4bcd71</t>
+          <t>حس لرزش توسط چه چیزی منتقل می‌شود؟</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4833,7 +4838,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>a18e6e14-c853-486a-9888-ce8ca1576ea9</t>
+          <t>4.گزینه صحیح در مورد رینوسپوریدیوزیس کدام است؟</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4887,7 +4892,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>aa9362e5-71b4-4ace-8ca8-f1c08e8ec5c9</t>
+          <t>تمام موارد زیر قارچ‌های دی مورفیک هستند به جز:(1987)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4939,7 +4944,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>f1ac012d-72dc-4347-85e7-ccc75b3e40cf</t>
+          <t>خونریزی زجاجیه در همه موارد زیر دیده می‌شود به جز:</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4996,7 +5001,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>b81ac62a-c3bd-4c9d-9719-d9657d7caef3</t>
+          <t>کدام یک از علوم رفتاری که به طور گسترده در مدیریت سیستم های بهداشتی (psm) استفاده می شود عبارت است از؟</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5051,7 +5056,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>506475f1-8508-473d-83d7-7a3c5325bddc</t>
+          <t>یک فرد 50 ساله سیگاری مزمن با شکایت از هموپتیزی (سرفه خونی) و یک توده در دیواره برونکوس اصلی راست که باعث تنگی مخروطی شکل و تنگی نامنظم شده است، مراجعه کرده است. سی تی اسکن بعدی که شما توصیه می‌کنید کدام است؟</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5101,7 +5106,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>3b9e40a1-6785-4b40-8c74-eb5b4661ab29</t>
+          <t>شایع‌ترین علت رینوره مایع مغزی-نخاعی (csf) چیست؟</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5156,7 +5161,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3fd3d1e6-c150-43ad-be18-82665af82e65</t>
+          <t>فشار کاف در لوله گذاری داخل تراشه با تهویه طولانی مدت باید کمتر از چه مقدار باشد؟</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5205,7 +5210,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>3a06ad30-ed8e-4231-8666-f11fbcfccdb9</t>
+          <t>سرطان پستان در مردان معمولاً با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5249,7 +5254,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>96c35e24-94a0-4088-9253-6e7169759c40</t>
+          <t>آنژیوفیبروم بینی در چه سنی دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5297,7 +5302,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>76a20462-11d5-4395-b05f-d12c0170ef02</t>
+          <t>سطح acth در چه زمانی بالاترین است؟</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5346,7 +5351,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>fa24f3d0-eb68-4cbe-9705-0c166a71d100</t>
+          <t>تزریق خون حجیم به چه صورت تعریف می‌شود؟</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5397,7 +5402,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>fd688292-8f32-4487-8815-f0faf73e93e2</t>
+          <t>ساختار نگه داشته شده توسط فورسپس در کدام قسمت دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5445,7 +5450,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3627b952-5134-43c5-a73a-3f86454d20d3</t>
+          <t>دنتیکول های کاذب شامل همه موارد زیر هستند به جز</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5508,7 +5513,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0b3d45bc-a535-4002-827b-346b53ee7616</t>
+          <t>در مورد شکستگی آلت تناسلی مردانه که شامل پارگی تونیکا آلبوژینه با فاشیای باک سالم باشد، کدام یک از موارد زیر از نظر بالینی مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5559,7 +5564,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>f5026f90-9c6e-48a6-9b09-d6229afb55eb</t>
+          <t>اکسیژن در طول رادیوتراپی مؤثر است؟</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5609,7 +5614,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>a424f90f-b3c6-4fc7-ace0-3a7072c8d541</t>
+          <t>نقطه b در درمان سرطان دهانه رحم با پرتودرمانی مربوط به کدام است؟</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5658,7 +5663,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>47bdf07d-b88b-4186-93ce-dd28bb824a67</t>
+          <t>نقص آنزیم مورد آزمایش در تست گاتری کدام است؟</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5711,7 +5716,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>a231105a-49da-4d32-931b-3b6c10f7d057</t>
+          <t>کمبود وزن نسبت به قد در یک کودک 3 ساله نشان دهنده ____________ است</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5766,7 +5771,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>b97bb95d-820d-4d7f-a917-43f61e075676</t>
+          <t>شایع‌ترین علت استریدور متناوب در یک کودک ۱۰ روزه چیست؟</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5824,7 +5829,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>d02e9b89-04d8-404c-b87e-24c091684acd</t>
+          <t>کوتاه‌ترین دوره نهفتگی در کدام بیماری مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5872,7 +5877,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>bf73c025-3970-4532-9b76-6aee7828abb0</t>
+          <t>طول بند ناف چقدر است؟</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5917,7 +5922,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>420a92a7-2d74-4c10-9f9a-23647d11119b</t>
+          <t>یک کودک 10 ماهه با وزن 8 کیلوگرم به دلیل استفراغ مکرر و اسهال مداوم به کلینیک آورده می‌شود. در معاینه چشم‌پزشکی، لکه‌های بیتوت روی ملتحمه بولبار هر دو چشم مشاهده می‌شود. برنامه توصیه‌شده درمان با ویتامین a برای این کودک چیست؟</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5973,7 +5978,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>220d25ea-a29f-438c-8f53-805044a6f51c</t>
+          <t>دشوارترین معیار برای اثبات ارتباط علّی در اتیولوژی یک بیماری چیست؟</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -6026,7 +6031,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>634539d4-f27f-4519-9261-c691a15f1f60</t>
+          <t>یک کودک 2 ساله با سابقه تشنج و تاخیر در رشد توسط والدینش آورده شده است. او دارای چندین لکه های کم رنگ روی کمر است. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -6093,7 +6098,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>59c3f803-6604-4f03-a615-79b3150b5a48</t>
+          <t>درد آنژینی شبانه و تعریق شدید در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -6141,7 +6146,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>8a2cef48-108a-48b3-9cda-44ed99ec6733</t>
+          <t>اسپونجیوز در کدام یک از موارد زیر دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -6185,7 +6190,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>8d5f9d0b-be6c-4cab-8a4c-8be48b159ba3</t>
+          <t>مورد صحیح درباره پلی‌میوزیت کدام است؟  
+الف) درگیری عضلات چشمی  
+ب) درگیری حلق  
+ج) آتروفی عضلانی  
+د) رفلکس‌های سریع شایع</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6240,7 +6249,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>c8915a51-7b05-4e03-838e-b206c14bf045</t>
+          <t>کدام یک از عوامل زیر در هنگام در نظر گرفتن حفظ فضا پس از از دست دادن زودرس دندان های شیری مهم هستند؟</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6288,7 +6297,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>98fdb8a2-4810-447a-9942-5f3c15b0f01a</t>
+          <t>علامت آوسپیتز در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6345,7 +6354,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>f1134e0b-61ed-4218-a91e-7069a5ef4de6</t>
+          <t>در درمان خوراکی با آهن، افزایش درصد هموگلوبین پس از چه مدت قابل مشاهده است؟</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6400,7 +6409,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>9cc0ca70-970b-4472-8b27-9da277d2117c</t>
+          <t>کدام یک از موارد زیر باید برای تمیز کردن محل عمل قبل از انجام ترمیم های کامپوزیتی استفاده شود؟</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6468,7 +6477,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0e8c9b4d-9373-44c4-ad1f-90405865d262</t>
+          <t>در کدام یک از مسمومیت‌های زیر علامت مک اوان دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6517,7 +6526,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2949d44c-be17-4083-a034-6d4ff75ef019</t>
+          <t>کدام دیورتیک می‌تواند در درمان هیپرکلسمی استفاده شود؟</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6563,7 +6572,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>a5e63927-e725-4e61-8f86-3cceff9d17a4</t>
+          <t>یک کودک 6 ساله که با خارش اطراف مقعد، خراشیدگی پوست و شب‌ادراری مراجعه کرده است، به یک انگل که باعث خودآلودگی می‌شود، مبتلا شده است. عامل بیماری‌زا توسط کدام روش تشخیص داده می‌شود؟</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6619,7 +6628,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>b243f183-ece8-4f55-bc3a-a899e88967ec</t>
+          <t>کدام دارو باعث تولید آنتی‌بادی علیه آنتی‌ژن گلبول‌های قرمز شده و منجر به همولیز خودایمنی می‌شود؟</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6683,7 +6692,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>fd508aed-35f8-42d4-a31d-dd2fbbb93bf1</t>
+          <t>در کارتریج تاندم، تعداد گلوله‌های شلیک شده چندتاست؟</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6735,7 +6744,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>8e12f62e-e804-4f77-8cca-7804c4513058</t>
+          <t>کدام یک از موارد زیر از علائم رتینوپاتی دیابتی نیست؟</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6785,7 +6794,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>000333d1-cc05-42b1-81c2-e5470f9d718a</t>
+          <t>در پیوند قرنیه انسان، بافت اهدایی از کجا تهیه می‌شود؟</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6838,7 +6847,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>f25c9290-9aee-4aee-8696-dd573f74d258</t>
+          <t>تب اسکراب (scrub typhus) توسط چه چیزی منتقل می‌شود؟ سپتامبر 2004</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6898,7 +6907,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>636c0d49-d70b-41c7-98de-6abc9e044e65</t>
+          <t>کدام یک از موارد زیر معیار اصلی گورد محسوب نمی‌شود؟</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6944,7 +6953,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>a3c3a2d5-7598-48fd-8f6c-ad629ed7cc31</t>
+          <t>بیماری غشای هیالین به صورت چه چیزی ظاهر می‌شود؟</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6995,7 +7004,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>d05dbe40-f281-4b57-a1f8-72559463b570</t>
+          <t>سختی موقت آب عمدتاً به دلیل وجود کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -7059,7 +7068,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>765b8c80-9d66-40b6-bfbb-3793262d8b93</t>
+          <t>یک مرد ۴۵ ساله از جنوب چین با تشخیص تومور نازوفارنکس مواجه است. از نظر هیستولوژیک، این نئوپلاسم از سلول‌های آناپلاستیک تشکیل شده که برای سیتوکرتین ایمونوراکتیو هستند و با لنفوسیت‌های فراوان مخلوط شده‌اند. کدام یک از عوامل زیر به احتمال زیاد در پاتوژنز این نئوپلاسم نقش دارد؟</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -7116,7 +7125,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7298a0f2-058e-4d40-86cc-1577c87f129f</t>
+          <t>همه موارد زیر در مورد ماکولا دنسا صحیح است به جز</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -7167,7 +7176,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>f2ba6ebd-d1a4-484c-a176-cf44923bcbb5</t>
+          <t>سندرم همولیتیک اورمیک توسط کدام یک از موارد زیر ایجاد می‌شود؟  
+الف) eiec  
+ب) شیگلا  
+ج) سالمونلا  
+د) وبا  
+ه) کلبسیلا</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -7224,7 +7238,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>f40e6647-478c-47e4-a766-b300e3f97823</t>
+          <t>نشانگر تومور برای دیسژرمینوما چیست؟</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -7282,7 +7296,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>e1baa7f6-1104-4440-8721-7d29b80c7161</t>
+          <t>سکویکوماب در چه مواردی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -7350,7 +7364,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>dca0925a-bc24-4ace-abfd-48666fcbb607</t>
+          <t>شایع‌ترین تظاهر نوروبلاستوما چیست؟</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -7406,7 +7420,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>f4e97e71-44bf-41cb-bd09-24c99c4726d1</t>
+          <t>کدام یک از مواد سمی زیر در این گیاه وجود دارد؟</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -7452,7 +7466,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7cc4aecc-8bcd-4ce7-8b1a-c1c2597fab2c</t>
+          <t>یک نوزاد با سابقه عفونت گوش به مننژیت مشکوک است. میکروبی که معمولاً مسئول چنین حالتی است کدام است؟</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7505,7 +7519,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>f6f819c6-bb16-4605-91e4-4f2a4019986f</t>
+          <t>مهم‌ترین نشانه‌ی معنادار تنگی شریان کلیوی در آنژیوگرام چیست؟</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7558,7 +7572,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>0a122f4c-afff-4f80-b875-34fb7fb15b56</t>
+          <t>سم عامل آسیت آندمیک کدام است؟</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7603,7 +7617,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0813f52f-e5da-4fd7-be3c-88baa4bab2ad</t>
+          <t>طحال از کدام قسمت منشأ می‌گیرد؟</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7655,7 +7669,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>b4e2a75f-45b3-4009-8abc-46ffb6f49280</t>
+          <t>کدام دارو در حال حاضر برای بیماری آلزایمر استفاده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7712,7 +7726,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>039cfb73-ed02-48d5-9402-91cb407a1250</t>
+          <t>انتقال مقاومت دارویی در استافیلوکوکوس از طریق کدام روش انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7763,7 +7777,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>c3532c72-b80b-4cb4-97e3-53adfa3a90fb</t>
+          <t>هزینه سفر و اقامت (conduct money) به چه کسی پرداخت می‌شود؟</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7812,7 +7826,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>bc88879b-5238-4c60-b419-54d0c73f4366</t>
+          <t>نسبت کارایی پروتئین چیست؟</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7876,7 +7890,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>af6f3e57-d459-4c70-a35b-ae747f3c93bc</t>
+          <t>کدام یک از موارد زیر در مورد تومور مغزی انجام نمی‌شود؟</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7930,7 +7944,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>c04db3dc-fc35-4f0f-a5c9-fc20be723b2a</t>
+          <t>سندرم هورنر شامل تمام موارد زیر به جز کدام یک است؟</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7980,7 +7994,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>340d9118-6a27-4282-b46b-06d63f1fd425</t>
+          <t>جهش سوماتیک e17k در دامنه ph ژن akt-1 با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -8036,7 +8050,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>27ad1851-a8a1-4720-9d4b-f3f5ba1ad872</t>
+          <t>بدشکلی فلاسک ارلن مایر در استخوان ران در همه موارد زیر دیده می‌شود، به جز</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -8084,7 +8098,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>1c5ae9a0-5ef7-479d-a065-4fb76bd30c13</t>
+          <t>داروی فنولدپام در چه مواردی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -8139,7 +8153,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>4606b481-62b4-4441-bafa-2ba5bac58e5d</t>
+          <t>درمان شرکای جنسی در تمامی عفونت‌ها ضروری است به جز</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -8191,7 +8205,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>743067b5-25c3-44c8-9abd-a9372657fb9c</t>
+          <t>اندوتلیوم قرنیه از نظر جنین شناسی از کدام ساختار مشتق می شود؟</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -8242,7 +8256,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2bd88a1d-28a6-4018-b369-d5d0971cdffb</t>
+          <t>اصطلاح 'telefono' به کدام نوع از شکنجه اشاره دارد؟</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -8299,7 +8313,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>c9224419-ce4d-4cc5-8381-f027883eb2dc</t>
+          <t>یک کودک 5 ساله سوختگی هایی به اندازه کف دست خود روی سطح بدنش دارد. درصد سوختگی چقدر است؟</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -8351,7 +8365,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>f2674fe4-5b62-4ea9-8931-b9d91dcedbe0</t>
+          <t>نوزادی بدون لبخند اجتماعی، بدون ابروها و زبان بیرون زده. تشخیص –</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -8404,7 +8418,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>40ea7a51-9d34-42b2-b7f1-acc85adf4164</t>
+          <t>کدام یک از موارد زیر یک واکنش فاز یک محسوب نمی‌شود؟</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -8452,7 +8466,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>7a1dfd78-e2f9-47df-9f29-61bc9e564974</t>
+          <t>همه موارد زیر از دلایل قطع دائمی داروی att هستند به جز؟</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8501,7 +8515,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>c77a7750-58bb-42d1-a881-3a1910cd532a</t>
+          <t>نرخ باروری عمومی (gfr) چیست؟</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8558,7 +8572,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0459bc71-1575-4180-884e-d89eb7a329f8</t>
+          <t>نوروپاتی ایسکمیک قدامی عصب بینایی با کدام مورد مشخص می‌شود؟</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8611,7 +8625,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>9a85c2c2-cd63-4ee8-81d6-4122c03db463</t>
+          <t>کدام یک از عوامل زیر مهم‌ترین عامل در تعیین پیشرفت نفروپاتی دیابتی است؟</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8665,7 +8679,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>90845d4e-4e9e-42dd-8e9f-37467b27a358</t>
+          <t>کدام گزینه در مورد سندرم خروجی توراکس نادرست است؟</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8712,7 +8726,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>3d0eea44-1657-493e-a41d-830d43e9d58d</t>
+          <t>آلفا فتوپروتئین در کدام مورد کاهش می یابد؟ (تکرار)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8762,7 +8776,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>27ea5dc3-8df2-41b8-98ac-cc86a5572e15</t>
+          <t>تغییر رنگ سیاه رنگ در اطراف زخم ورودی سلاح گرم ناشی از چیست؟</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8809,7 +8823,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>5fbe4127-91eb-49b2-abcd-7e760c6749d5</t>
+          <t>یک نوزاد تازه متولد شده با خونریزی شدید از ناحیه بند ناف پس از تولد مراجعه کرده است. بقیه معاینات و pt، aptt در محدوده طبیعی هستند. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8861,7 +8875,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>29fbe032-49b3-4627-9943-c65018ed714b</t>
+          <t>انتقال میکروفیلریا در پشه چگونه است؟</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8920,7 +8934,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>a5179967-c2e6-433f-a486-60bbf362d03a</t>
+          <t>حفظ وضعیت بدن در یک فرد بالغ طبیعی به چه چیزی بستگی دارد؟</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8970,7 +8984,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>088e0510-c5b8-479c-896c-ea885642759f</t>
+          <t>rna پلیمراز کدام فعالیت را دارد؟</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -9019,7 +9033,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>251a7b23-9f2a-4637-949d-47c5662284bd</t>
+          <t>واحد فعالیت آنزیم -</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -9078,7 +9092,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>f96901d8-b54b-4d33-82e0-608caad50578</t>
+          <t>سر سوم عضله کوراکوبراکیالیس کدام است؟</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -9130,7 +9144,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>5519636c-49a7-439e-8b1d-6591176b63bb</t>
+          <t>میزان بروز اکتوپی کلیه چقدر است؟</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -9177,7 +9191,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>6fcf62ee-d171-48c2-8ce5-33b468565c3d</t>
+          <t>حداقل تعداد روزهای تغذیه در سال که تحت برنامه وعده غذایی نیمروز توصیه می‌شود، چند روز است؟</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -9221,7 +9235,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>3bae2d95-174d-46da-a0db-8061b065d663</t>
+          <t>اترومانیا به چه اشاره دارد؟</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -9269,7 +9283,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ed96a703-ac93-462a-b6f9-2a1038e9e053</t>
+          <t>کودکی با سندرم نفروتیک مقاوم به استروئید ثانویه به fsgs که به متیل پردنیزولون پاسخ نداده است، مراجعه می‌کند. چه درمانی باید بعداً تجویز شود؟</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -9327,7 +9341,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>d43eb525-8d17-410f-b6f4-60721664beac</t>
+          <t>یک زن نخست‌زا در هفته ۳۲ بارداری با درد حاد شکم به مدت ۲ ساعت، خونریزی واژینال و کاهش حرکات جنین به صورت تصادفی مراجعه می‌کند. مدیریت این بیمار باید چگونه باشد؟</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -9385,7 +9399,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>e6e1e845-d4e2-4537-8b2c-9c8ea846b95f</t>
+          <t>کدام یک از موارد زیر زنده‌زا است؟</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -9442,7 +9456,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>55ef54dc-4ab3-42d7-a3c5-56a73bf7581f</t>
+          <t>همه موارد زیر از آنتاگونیست‌های tnf-alpha مورد استفاده در آرتریت روماتوئید هستند به جز:</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -9496,7 +9510,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>453c1c76-3d3c-481a-a573-fd50a567e179</t>
+          <t>کدام یک از موارد زیر از ویژگی‌های میلوم متعدد نیست؟</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -9546,7 +9560,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>c1d8e17b-d161-42bf-8355-5a24839c5f39</t>
+          <t>پیکان نشان‌دهنده شناسایی ساختار آناتومیک کدام است؟</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -9598,7 +9612,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ca907d57-07fe-4f2a-bf11-e80e3a9a168a</t>
+          <t>جراحی برای ماستیت پری داکتال -</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -9648,7 +9662,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>a3dd462f-3810-4df0-bafd-fced9204c4f7</t>
+          <t>در نقرس، توفی در کدام یک از موارد زیر یافت می‌شود؟  
+الف) مایع سینوویال  
+ب) غضروف مفصلی  
+ج) کپسول مفصلی  
+د) پوست  
+ه) عضله</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -9701,7 +9720,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>1c8d2c0b-e3af-413a-9382-0b2cf1017b1b</t>
+          <t>زخم معده مشاهده شده در سوختگی ها چه نامیده می شود؟</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -9746,7 +9765,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0fdf5e74-8e90-4d73-a345-b956ddb6ea3e</t>
+          <t>پشه کولکس چه بیماری را منتقل می کند؟</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -9802,7 +9821,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2e328705-7191-47a1-a4ac-4c84a197eb55</t>
+          <t>ژن‌های ناحیه کلاس iii hla عناصر مهمی در کدام مورد هستند؟ سپتامبر 2012</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -9852,7 +9871,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>c9aad448-c172-4cbb-87af-4c7d49359361</t>
+          <t>فراوان ترین اسیدهای آمینه موجود در کلاژن؛</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -9896,7 +9915,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ab44858a-54e9-4c4e-8e9d-06492017d522</t>
+          <t>زخم آمیبی شکل ویژگی کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -9948,7 +9967,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2f5f61ef-7c40-46f4-aabd-e2fcafc7c90e</t>
+          <t>سندرم مدولای جانبی یا سندرم والنبرگ شامل همه موارد زیر به جز کدام است؟</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -9998,7 +10017,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>4379112b-d842-4868-8708-4f10275f9b11</t>
+          <t>کلسترول چیست؟</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -10050,7 +10069,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>7632e792-15c4-4ee5-8b25-bc233dca21c1</t>
+          <t>آتروپین در همه موارد زیر استفاده می‌شود به جز:</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -10097,7 +10116,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>e3df8f1d-b1aa-4c4e-a840-27b74820ae94</t>
+          <t>یک پسر 15 ساله با هماچوری مراجعه می‌کند. سابقه تشخیص ناشنوایی و دیستروفی قرنیه دارد. آزمایش ادرار نشان‌دهنده پروتئین 1+، بدون کتون، بدون گلوکز، خون 1+ و بدون لوکوسیت است. بیوپسی کلیه سلول‌های کف‌آلود اپیتلیال توبولی را در میکروسکوپ نوری نشان می‌دهد. در میکروسکوپ الکترونی، غشای پایه گلومرولی نواحی نازک‌شدگی را نشان می‌دهد، با تقسیم و لایه‌لایه شدن لامینا دنسی در نواحی ضخیم‌شده دیگر. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -10167,7 +10186,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>0953ccc3-bb07-43e7-a37b-63f60fd62ed0</t>
+          <t>یک کودک 10 ساله چاق از بخش غدد درون‌ریز به دلیل لنگیدن دردناک همراه با درد لگن به اورژانس ارجاع داده شده است. کدام یک از بررسی‌های زیر مورد نیاز نیست؟</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -10220,7 +10239,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>b8fb3dff-a6aa-4661-a1ae-1ee19dc75377</t>
+          <t>در مورد فلوروزیس همه موارد زیر صحیح هستند به جز -</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -10270,7 +10289,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>386960cc-16ab-4c43-a05c-77389db0818d</t>
+          <t>کدام یک از تکنیک‌های جداسازی زیر به اندازه مولکولی پروتئین بستگی دارد؟</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -10322,7 +10341,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>3ad191cd-1c85-45ed-a0f0-0dcef4585aba</t>
+          <t>اشعه ایکس ناهنجاری مادرزادی مقعد و روده را در چه زمانی تشخیص می‌دهد؟</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -10371,7 +10390,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>e5eb084a-2019-483b-b5aa-4acf6ca8df32</t>
+          <t>بیمار فوت شده بر اساس طبقه‌بندی ماستریخت در کدام نوع قرار می‌گیرد؟</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -10428,7 +10447,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>a1ea9de3-ff5b-4458-b9da-1cff87d31767</t>
+          <t>یک دختر 13 ساله برای پیگیری نقص انعقاد در مسیر خارجی به کلینیک هماتولوژی مراجعه می‌کند. فاکتور انعقادی که دچار نقص است کدام است؟</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -10474,7 +10493,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>7a5b2d3e-8efa-4f30-ae49-91db4b5bc4d5</t>
+          <t>همه موارد زیر با آنسفالوپاتی ورنیکه مرتبط هستند به جز</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -10519,7 +10538,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>997b6769-ec81-4a31-9541-affc47a9a0a8</t>
+          <t>اندازه ایمن پیوند قرنیه با احتمال کمتر شکست چیست؟</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -10570,7 +10589,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>53ce7653-2757-4761-91e8-c88b2b6a613e</t>
+          <t>ثبت گرافیکی اتساع دهانه رحم بر حسب سانتیمتر در مقابل مدت زمان زایمان بر حسب ساعت چه نامیده می‌شود؟</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -10624,7 +10643,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>29a3d693-c655-403e-b37e-c3ea7d78e995</t>
+          <t>برای مقایسه بین‌المللی، مرده‌زایی به جنینی اطلاق می‌شود که وزن آن بیش از</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -10675,7 +10694,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>4d479168-dc99-4de6-8775-854e41dedb80</t>
+          <t>شایع‌ترین علت نوریت اپتیک</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -10739,7 +10758,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>1ddadcd5-6381-4657-b768-c0a9b89649f7</t>
+          <t>یک بیمار پسر 10 ساله از فاصله بین دندان‌های جلویی فک بالا شکایت دارد. معاینه داخل دهانی یک دیاستم میدلاین 2 میلی‌متری را نشان می‌دهد که برای آن یک دستگاه متحرک با فنرهای انگشتی تجویز شده است. چه نوع لنگرگاهی در این دستگاه مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -10799,7 +10818,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>f4ed4193-352b-43a7-a30c-28c405e83138</t>
+          <t>ماده بی‌حسی با اثر تنگ‌کننده عروق در چه مواردی منع مصرف دارد؟</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -10845,7 +10864,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>b63f5666-c253-4f17-a259-2b0777b5e330</t>
+          <t>کدام یک از موارد زیر جزء شاخص اصلاح شده ریسک قلبی گلدمن نیست؟</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -10901,7 +10920,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>f8ca0f60-9e78-40bf-8b76-762d6947e64a</t>
+          <t>شایع‌ترین علت آنوریسم شکمی چیست؟</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -10951,7 +10970,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>a5e0f0e7-0412-4f1b-bd3c-2c7b1e8e4406</t>
+          <t>تاخیر رادیوفمورال مشخصه کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -11000,7 +11019,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>36c00e39-a06f-48b5-9893-114a9545f1d8</t>
+          <t>یک مرد ۲۵ ساله پس از سقوط از نردبان از ارتفاع ۲۰ فوتی توسط آمبولانس به بخش اورژانس آورده می‌شود. او برای تثبیت ستون فقرات روی تخته پشت قرار داده شده است. دسترسی داخل وریدی در مسیر انتقال ایجاد شده و مایع کریستالوئید دریافت کرده است. بیمار در زمان ورود هوشیار نیست. فشار خون او ۹۱/۴۴ میلی‌متر جیوه، نبض ۱۲۹ در دقیقه و تعداد تنفس ۸ در دقیقه است. سطح اکسیژن خون ۸۵٪ است. معاینه نشان‌دهنده چندین خراش سطحی در صورت، شکستگی فرورفته جمجمه در ناحیه گیجگاهی و شکستگی ساعد است. هیچ هماتوم دور چشمی یا دور گوشی مشاهده نمی‌شود و ادم قابل توجهی در گردن وجود ندارد. کدام یک از گزینه‌های زیر مناسب‌ترین اقدام بعدی در مدیریت این بیمار است؟</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -11057,7 +11076,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>80e93e16-598a-4324-92bc-9c0bd00e5795</t>
+          <t>در جریان لامینار، اگر قطر به نصف کاهش یابد؟</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -11110,7 +11129,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>e8007a1d-bda5-4dfb-a2d8-fb7631546e6e</t>
+          <t>شایع‌ترین عارضه جانبی سیس‌پلاتین در بیمارانی که برای سرطان مری از آن استفاده می‌کنند کدام است؟</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -11165,7 +11184,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>88f0f9d8-df54-4527-bdda-4bb7c701392b</t>
+          <t>سیستم مدار نیمه بسته</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -11222,7 +11241,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>57a28285-309c-46e1-9e99-4216cb0818f0</t>
+          <t>اووگونیا در کدام یک از مراحل زیر از رشد انسان به حداکثر تعداد خود می‌رسد:</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -11272,7 +11291,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>c655ae07-65a8-4963-8a8c-94edb99189b9</t>
+          <t>عارضه اصلی سیستوگاستروستومی برای کیست کاذب پانکراس چیست؟</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -11333,7 +11352,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>68c854bc-5abf-4d40-b709-b2c425eb3e7c</t>
+          <t>اهمیت خط کیسه صفرا-ورید اجوف:</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -11382,7 +11401,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>798e154e-3279-45d8-b342-bdc264afa10c</t>
+          <t>نفروپاتی فیبرونکتین تمامی ویژگی‌های زیر را دارد به جز:</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -11436,7 +11455,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>09978b68-0964-42ad-bf21-ce31b718a62d</t>
+          <t>محتوای لیپید و پروتئین در غشاء کدام اندامک برابر است؟</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -11484,7 +11503,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>b5f2c4b6-5215-4c89-a649-59beec4bcd71</t>
+          <t>همه موارد زیر باعث ایجاد غشای خاکستری-سفید روی لوزه ها می شوند، به جز</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -11532,7 +11551,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>dc18dae1-8f5b-4bcf-bba8-dfce7141f135</t>
+          <t>یک پسر 10 ساله با بثورات پورپوریک در اندام تحتانی، هماچوری، درد شکم و آرتریت مراجعه می‌کند اما سابقه تب ندارد. تشخیص احتمالی چیست؟</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -11605,7 +11624,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>a18e6e14-c853-486a-9888-ce8ca1576ea9</t>
+          <t>نقاط عطف رشد یک کودک 3 ساله در صورتی تأخیر محسوب می‌شود که نتواند:</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -11659,7 +11678,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>fafccadc-a2ad-4a98-91f1-9fdcc0bf1284</t>
+          <t>سن و جنسیت فرد در چه سنی مشخص می‌شود؟</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -11710,7 +11729,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>a2d592ab-a69c-43ee-b952-c402a07a20c1</t>
+          <t>چرخه اسید سیتریک یک مرکز تبدیل انرژی است. کدام آنزیم چرخه اسید سیتریک با فسفریلاسیون در سطح سوبسترا atp تولید می کند؟</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -11757,7 +11776,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>1cfc2a19-72f6-47a1-b14e-1e83bdc938ce</t>
+          <t>مخچه از کدام بخش منشأ می‌گیرد؟</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -11817,7 +11836,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>8fd17e9f-298d-4486-a228-3bb2f0cb4cc7</t>
+          <t>ورید مشترک چهره ای از اتصال کدام وریدها تشکیل می‌شود؟</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -11862,7 +11881,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>506475f1-8508-473d-83d7-7a3c5325bddc</t>
+          <t>سطح ترانسکتولاز گلبول‌های قرمز نشانگر کمبود کدام ویتامین است؟</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -11912,7 +11931,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>3b9e40a1-6785-4b40-8c74-eb5b4661ab29</t>
+          <t>در نوروم آکوستیک، کدام عصب جمجمه‌ای زودتر درگیر می‌شود؟</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -11963,7 +11982,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>3fd3d1e6-c150-43ad-be18-82665af82e65</t>
+          <t>کدام یک از انواع ملانوم بدخیم پیش‌آگهی بهتری دارد؟</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -12017,7 +12036,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>96c35e24-94a0-4088-9253-6e7169759c40</t>
+          <t>داروی انتخابی برای پسوریازیس پوسچولار در دوران بارداری کدام است؟</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -12072,7 +12091,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>fa24f3d0-eb68-4cbe-9705-0c166a71d100</t>
+          <t>ماکولا لوتئا در شبکیه در چه فاصله‌ای از دیسک بینایی قرار دارد؟</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -12129,7 +12148,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>a4bf661c-c54f-49c0-99c2-50e0c2bb2027</t>
+          <t>نوزاد کوچک برای سن حاملگی دارای کدام مورد است؟</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -12176,7 +12195,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>d0ee46e3-a2c7-471f-a6ea-92e91cb333df</t>
+          <t>داروی انتخابی برای تب یونجه:</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -12230,7 +12249,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>fd688292-8f32-4487-8815-f0faf73e93e2</t>
+          <t>روشی که شامل ضربه زدن همزمان به هر دو گوش با کف دست می‌شود و منجر به پارگی پرده گوش می‌گردد، چه نام دارد؟</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -12280,7 +12299,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>4f9d8d15-8b2e-4744-8c4e-ae497ed34d27</t>
+          <t>اپیفیز در کدام تومور استخوانی درگیر می‌شود؟</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -12338,7 +12357,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>3627b952-5134-43c5-a73a-3f86454d20d3</t>
+          <t>سندرم سندیفر ناشی از ریفلاکس معده به مری در نوزادان با چه شرایطی اشتباه گرفته می‌شود؟</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -12393,7 +12412,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>f5026f90-9c6e-48a6-9b09-d6229afb55eb</t>
+          <t>کدام یک از موارد زیر سرشار از اسید لینولئیک است؟ مارس 2002</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -12441,7 +12460,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>a424f90f-b3c6-4fc7-ace0-3a7072c8d541</t>
+          <t>برای هیستروسکوپی، موارد زیر استفاده می‌شود: الف) آب مقطر ب) هوا ج) گلیسین د) دی‌اکسید کربن</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -12495,7 +12514,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>a231105a-49da-4d32-931b-3b6c10f7d057</t>
+          <t>حاملین در همه موارد زیر مهم هستند به جز-</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -12546,7 +12565,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>d02e9b89-04d8-404c-b87e-24c091684acd</t>
+          <t>شایع‌ترین محل تشکیل سنگ‌های بزاقی کجاست؟</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -12605,7 +12624,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>420a92a7-2d74-4c10-9f9a-23647d11119b</t>
+          <t>اثر پیرترین بر پشه‌ها به چه صورت توصیف می‌شود؟</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -12657,7 +12676,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>8f3cacc6-2ceb-4bbc-94d5-ee7401653fba</t>
+          <t>یک زن ۲۲ ساله از یک خانواده بزرگ ایتالیایی برای یک اختلال خونی خانوادگی غربالگری می‌شود. نتایج آزمایش‌های آزمایشگاهی شامل هموگلوبین ۹.۵ گرم در دسی‌لیتر و اسمیر خون که نشان‌دهنده میکروسیتوز خفیف، هیپوکرومی و چند سلول هدف است. الکتروفورز هموگلوبین افزایش خفیفی در هموگلوبین a2 (۷.۵٪) را نشان می‌دهد. تشخیص مناسب چیست؟</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -12724,7 +12743,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>634539d4-f27f-4519-9261-c691a15f1f60</t>
+          <t>نواحی پایینی ریه انسان در حالت ایستاده به طور معمول بهتر از نواحی بالایی تهویه می‌شوند زیرا:</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -12773,7 +12792,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>59c3f803-6604-4f03-a615-79b3150b5a48</t>
+          <t>نادرست در مورد واکسن تب زرد</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -12832,7 +12851,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>8a2cef48-108a-48b3-9cda-44ed99ec6733</t>
+          <t>استانداردسازی مستقیم برای مقایسه داده‌های مرگ و میر دو کشور استفاده می‌شود. این کار به دلیل تفاوت در چه چیزی انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -12876,7 +12895,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>c8915a51-7b05-4e03-838e-b206c14bf045</t>
+          <t>واکنش های فاز اول متابولیسم دارو شامل موارد زیر می شود به جز:</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -12929,7 +12948,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>98fdb8a2-4810-447a-9942-5f3c15b0f01a</t>
+          <t>کدام یک از موارد زیر جدیدترین داروی تأیید شده برای سل مقاوم به چند دارو (mdr tb) است؟</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -12983,7 +13002,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0e8c9b4d-9373-44c4-ad1f-90405865d262</t>
+          <t>ویروسی که هم از طریق خونی و هم از طریق عصبی منتشر می‌شود کدام است؟</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -13033,7 +13052,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>b243f183-ece8-4f55-bc3a-a899e88967ec</t>
+          <t>کدام گروه سنی بیشترین تأثیر را از عفونت سرخجه می‌پذیرد؟</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -13080,7 +13099,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fd508aed-35f8-42d4-a31d-dd2fbbb93bf1</t>
+          <t>کدام یک از موارد زیر که در جذب آهن نقش دارد، توسط کبد سنتز شده و از طریق صفرا در روده ترشح می‌شود؟</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -13140,7 +13159,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>4bd22e38-c286-4483-b155-4adc0586989d</t>
+          <t>یک کودک با hb-6.5 گرم٪، mcv-65، mch-15 و پروتوپورفیریا با عرض توزیع گلبول‌های قرمز بسیار کمتر، به احتمال زیاد از چه بیماری رنج می‌برد؟</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -13220,7 +13239,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>000333d1-cc05-42b1-81c2-e5470f9d718a</t>
+          <t>شایع ترین جزء نیتروژن دار غیرپروتئینی خون:</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -13276,7 +13295,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>636c0d49-d70b-41c7-98de-6abc9e044e65</t>
+          <t>کدام یک آلکالوئید نیست؟</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -13323,7 +13342,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>a3c3a2d5-7598-48fd-8f6c-ad629ed7cc31</t>
+          <t>در مورد گلوتاتیون ردوکتاز کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -13373,7 +13392,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>58840ff6-308d-49bd-ad40-0753bfd2045c</t>
+          <t>تجویز اسکولین (sch) می‌تواند منجر به هایپرکالمی خطرناک در کدام یک از موارد زیر شود؟</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -13423,7 +13442,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>dc9c5eb7-c2c7-4cf6-9509-dbc41841f64f</t>
+          <t>کاریوتایپینگ در کدام فاز چرخه سلولی انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -13477,7 +13496,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>f2ba6ebd-d1a4-484c-a176-cf44923bcbb5</t>
+          <t>هپاتیت b از طریق کدام روش منتقل نمی‌شود؟</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -13543,7 +13562,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>d0615de7-6f9e-4bc6-bc30-14c3760427be</t>
+          <t>مهم‌ترین ویژگی مکانیکی که در هنگام تنظیم کلیپس پروتز پارسیل فلز پایه دخیل است، کدام است؟</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -13591,7 +13610,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>c4a9c6a0-a8bf-4c83-94a8-7463340d080a</t>
+          <t>کدام عضله در نشانه فرومنت آزمایش می‌شود؟</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -13644,7 +13663,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>a49a3401-8b37-47cf-b8ce-b5787caf922f</t>
+          <t>استازولامید با چه مکانیسمی فشار داخل چشمی را کاهش می‌دهد؟ سپتامبر 2010</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -13689,7 +13708,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>f40e6647-478c-47e4-a766-b300e3f97823</t>
+          <t>کدام یک از چربی های زیر بیشترین غلظت اسیدهای چرب اشباع را دارد؟</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -13739,7 +13758,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>e1baa7f6-1104-4440-8721-7d29b80c7161</t>
+          <t>ترتیب کمترین حاشیه خطا در نمودار داده شده در زیر کدام است؟</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -13793,7 +13812,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>92659a1c-5537-4957-ba76-a9c6551a8730</t>
+          <t>بیمار نیاز به کشیدن دندان در ناحیه‌ای دارد که تحت پرتودرمانی قرار گرفته است. کدام یک از موارد زیر بیشترین خطر را برای این بیمار دارد؟</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -13839,7 +13858,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>dca0925a-bc24-4ace-abfd-48666fcbb607</t>
+          <t>کدام یک از موارد زیر مستعد کننده مسمومیت با کلروکین نیست؟</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -13899,7 +13918,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>b33a6a62-88c2-418f-a1df-e0490f457c39</t>
+          <t>مقدار کریستالوئید مورد نیاز برای جایگزینی 300 میلی‌لیتر خون از دست رفته چقدر است؟</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -13946,7 +13965,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>78247026-679d-4bd7-ac20-ec29e5d11741</t>
+          <t>شیردهی در صورتی منع مصرف دارد که مادر از کدام دارو استفاده کند؟</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -14004,7 +14023,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>7cc4aecc-8bcd-4ce7-8b1a-c1c2597fab2c</t>
+          <t>در سیفلیس ثانویه همه موارد زیر دیده می‌شوند به جز –</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -14051,7 +14070,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>f6f819c6-bb16-4605-91e4-4f2a4019986f</t>
+          <t>قارچ‌های فاقد چرخه جنسی در کدام دسته طبقه‌بندی می‌شوند؟</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -14105,7 +14124,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>f89158a5-d123-452b-9695-966b08794010</t>
+          <t>کوله سیستیت بدون سنگ ناشی از چیست؟</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -14155,7 +14174,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>0a122f4c-afff-4f80-b875-34fb7fb15b56</t>
+          <t>ثابت شده است که ریشه‌کنی هلیکوباکتر پیلوری در کدام یک از اختلالات معده مفید است؟</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -14205,7 +14224,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>cf327e20-4b17-4c75-93b4-d3600885832b</t>
+          <t>کدام یک از تومورهای تخمدانی زیر معمولاً به صورت دوطرفه رخ نمی‌دهد؟</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -14254,7 +14273,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>e58359d0-0674-41fb-a596-7b551c4ef2b7</t>
+          <t>مهارکننده dpp-iv که می‌توان در نارسایی کلیه استفاده کرد کدام است؟</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -14307,7 +14326,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>039cfb73-ed02-48d5-9402-91cb407a1250</t>
+          <t>بهترین انتخاب ترمیمی برای این حفره</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -14376,7 +14395,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>c04db3dc-fc35-4f0f-a5c9-fc20be723b2a</t>
+          <t>کلونی‌های سر مدوسا در کدام یک دیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -14433,7 +14452,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>1c5ae9a0-5ef7-479d-a065-4fb76bd30c13</t>
+          <t>کدام یک از داروهای ضد صرع باعث القای آنزیم نمی‌شود؟</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -14490,7 +14509,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>658088b6-9a4d-4459-8780-2b1268a8d9c7</t>
+          <t>تمام داروهای زیر در بیماران مبتلا به کمبود g-6-pd منع مصرف دارند، به جز -</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -14543,7 +14562,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>d100554a-cc02-43f3-bb78-b1ccea518562</t>
+          <t>عبارت صحیح درباره سیکلواکسیژناز-2 چیست؟</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -14597,7 +14616,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>4606b481-62b4-4441-bafa-2ba5bac58e5d</t>
+          <t>یک پسر ۲۰ ساله از شنیدن صداها و رفتار پرخاشگرانه به مدت ۲ روز شکایت دارد. او به مدت ۲ روز تب دارد. هنگام پرسش از خانواده‌اش، آن‌ها می‌گویند که او در حال زمزمه کردن با خود و حرکات بی‌هدف بوده است. سابقه‌ای از بیماری روانپزشکی وجود ندارد. تشخیص محتمل چیست؟</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -14646,7 +14665,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>8d7fa9d7-af76-416e-a8d9-d6640a839701</t>
+          <t>سندرم آیزنمنگر - کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -14698,7 +14717,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>f2674fe4-5b62-4ea9-8931-b9d91dcedbe0</t>
+          <t>هایپوگلیسمی شدید، افزایش اسید اوریک و نارسایی کلیه در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -14755,7 +14774,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>e22b14dd-2002-4b95-b23f-b3499b5038f2</t>
+          <t>شایع‌ترین علت سقط در سه‌ماهه اول بارداری چیست؟</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -14796,7 +14815,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>40ea7a51-9d34-42b2-b7f1-acc85adf4164</t>
+          <t>شایع‌ترین عصب آسیب‌دیده پس از تیروئیدکتومی کدام است؟</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -14846,7 +14865,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>7a1dfd78-e2f9-47df-9f29-61bc9e564974</t>
+          <t>آنتی بادی دسموگلئین 1 در بیمار با تاول های شل و فرسایش در صورت و تنه و عدم درگیری مخاط در کدام بیماری دیده می شود؟</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -14900,7 +14919,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>c77a7750-58bb-42d1-a881-3a1910cd532a</t>
+          <t>کدام یک از موارد زیر، ناهنجاری سیتوژنتیک در سندرم میلودیسپلاستیک نیست؟</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -14950,7 +14969,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>0459bc71-1575-4180-884e-d89eb7a329f8</t>
+          <t>شایع‌ترین علامت اولیه سندرم زولینگر-الیسون چیست؟</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -15003,7 +15022,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>9a85c2c2-cd63-4ee8-81d6-4122c03db463</t>
+          <t>نشانه بتل در کدام مورد دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -15057,7 +15076,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>c21d3ec3-36dd-4776-b936-a3ce9897dc8e</t>
+          <t>شایع‌ترین عارضه جانبی داپسون چیست؟</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -15103,7 +15122,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>d44a8745-b8b3-47f1-93cc-cf150eb14ef0</t>
+          <t>لپسرای باعث کدام یک از موارد زیر می‌شود؟</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -15152,7 +15171,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>a64dca0b-6dda-4a02-bf96-cfa2ce2c81eb</t>
+          <t>واحدهای مونته‌ویدئو برای اندازه‌گیری فعالیت رحم شامل چه مواردی است؟</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -15206,7 +15225,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>27ea5dc3-8df2-41b8-98ac-cc86a5572e15</t>
+          <t>دیستروفی عضلانی دوشن -</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -15256,7 +15275,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>5fbe4127-91eb-49b2-abcd-7e760c6749d5</t>
+          <t>بیمار با تب درجه پایین و کاهش وزن، کاهش حرکت قفسه سینه در سمت راست، کاهش لرزش قفسه سینه، کدری در ضربه زدن و کاهش صدای تنفس در سمت راست دارد. نای به سمت چپ منحرف شده است. محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -15314,7 +15333,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>bb286773-2e31-4887-9073-d66698c459b9</t>
+          <t>یک بیمار با آنژین لودویگ به اورژانس مراجعه می‌کند. کدام یک از موارد زیر در ابتدا انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -15373,7 +15392,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>8a086284-523d-447a-8d03-c12225ef417e</t>
+          <t>تصویر رادیوگرافی قفسه سینه یک بیمار نشان داده شده است. چه اقدام تشخیصی بعدی باید برای این بیمار انجام شود؟</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -15425,7 +15444,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>29fbe032-49b3-4627-9943-c65018ed714b</t>
+          <t>کدام یک از موارد زیر شایع‌ترین تومور حفره بینی است؟</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -15469,7 +15488,11 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>70477515-4fd0-4d00-b8a7-d920dfd49528</t>
+          <t>کانال اینگوئینال در قسمت خلفی توسط کدام ساختار محدود نشده است؟  
+الف) فاشیای عرضی  
+ب) تاندون مایل داخلی  
+ج) تاندون ترکیبی  
+د) رباط لاکونار</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -15527,7 +15550,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>7e032d2c-fb8c-4a50-8f06-5258a27a2c0e</t>
+          <t>نئوواسکولاریزاسیون عنبیه در کدام یک از موارد زیر دیده نمی‌شود؟</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -15577,7 +15600,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>5519636c-49a7-439e-8b1d-6591176b63bb</t>
+          <t>عوارض جانبی رایج کلرپرومازین شامل همه موارد زیر است به جز:</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -15626,7 +15649,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>8ac2bc42-c7c0-4a61-bf94-82e28ec49279</t>
+          <t>همه موارد زیر در مورد تزریق تصادفی تیوپنتون به داخل شریان درست است به جز:</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -15675,7 +15698,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6fcf62ee-d171-48c2-8ce5-33b468565c3d</t>
+          <t>بهترین روش تشخیصی برای آمبولی ریه ___:</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -15729,7 +15752,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>fea523b3-8b88-4269-a8da-3f514246fd5a</t>
+          <t>مرمری شدن بافت در چه زمانی مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -15782,7 +15805,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>3bae2d95-174d-46da-a0db-8061b065d663</t>
+          <t>یک پسر ۶ ساله توسط مادرش به بخش اطفال آورده می‌شود. مادر شکایت دارد که کودک پس از ضربه‌های جزئی دچار شکستگی‌های مکرر می‌شود. چندین مورد از این حوادث گزارش شده است. همچنین مادر اشاره می‌کند که کودک در شنوایی مشکل دارد و اغلب دستورات او را متوجه نمی‌شود. معاینه نشان‌دهنده بدشکلی در اندام تحتانی است. رادیوگرافی اندام تحتانی انجام شده که نتایج آن به شرح زیر است: کدام یک از گزینه‌های زیر مسئول این سناریوی بالینی است؟</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -15851,7 +15874,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ed96a703-ac93-462a-b6f9-2a1038e9e053</t>
+          <t>یکی از ویژگی‌های زیر می‌تواند برای تعریف لگن منقبض استفاده شود:</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -15905,7 +15928,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ff841224-49b7-48ad-8f23-764dd666f848</t>
+          <t>کدام یک از موارد زیر در مورد احیای بیمار سوختگی صحیح نیست؟</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -15961,7 +15984,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>d43eb525-8d17-410f-b6f4-60721664beac</t>
+          <t>کدام شریان به میانه‌روده (midgut) خونرسانی می‌کند؟</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -16015,7 +16038,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>e6e1e845-d4e2-4537-8b2c-9c8ea846b95f</t>
+          <t>محیط تایر مارتین برای کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -16077,7 +16100,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>55ef54dc-4ab3-42d7-a3c5-56a73bf7581f</t>
+          <t>در حالت ایده‌آل، مال اکلوژن باید در چه سنی درمان شود؟</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -16129,7 +16152,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>c924c932-6fa5-441f-85ce-05c789f4afc8</t>
+          <t>آسیب عصب مدیان در مچ دست باعث همه موارد زیر می‌شود به جز</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -16184,7 +16207,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>bbb2daab-9018-497b-aeb1-b248c85ed761</t>
+          <t>شایع‌ترین علت تنگی مجرای ادرار چیست؟</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -16236,7 +16259,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>2e328705-7191-47a1-a4ac-4c84a197eb55</t>
+          <t>ضخامت پیشبند سربی برای جلوگیری از اشعه -</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -16287,7 +16310,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ab44858a-54e9-4c4e-8e9d-06492017d522</t>
+          <t>تولید پلی ساکارید خارج سلولی باکتریایی
+a) خاصیت انحصاری استرپتوکوکوس موتانس است
+b) پیش نیازی برای ایجاد پوسیدگی دندان است
+c) عاملی است که اتصال باکتری ها به دندان را تسهیل می کند
+d) جزء ضروری پلاک دندانی است
+e) ویژگی تمام استرپتوکوکوس ها است</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -16353,7 +16381,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>2c1f6acf-c527-4c65-9a74-0c29a54ac5cc</t>
+          <t>در مورد سندرم زخم منفرد رکتوم همه موارد صحیح است/به جز</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -16398,7 +16426,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>4379112b-d842-4868-8708-4f10275f9b11</t>
+          <t>در سندرم بوگوراد، آسیب به فیبرهای پاراسمپاتیک عصب فاسیال در کجا رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -16450,7 +16478,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>7632e792-15c4-4ee5-8b25-bc233dca21c1</t>
+          <t>الگوی eeg انفجاری در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -16503,7 +16531,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>e3df8f1d-b1aa-4c4e-a840-27b74820ae94</t>
+          <t>هیپوکسی ناشی از انتشار در چه زمانی مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -16551,7 +16579,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>0953ccc3-bb07-43e7-a37b-63f60fd62ed0</t>
+          <t>همه موارد زیر در مورد نمره گلیسون صحیح است به جز</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -16600,7 +16628,8 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>b8fb3dff-a6aa-4661-a1ae-1ee19dc75377</t>
+          <t>یک بیمار زن برای درمان تغییر رنگ دندان نیش فک بالا مراجعه می‌کند. در معاینه، تغییر رنگ زرد دندان مشاهده می‌شود که در لمس یا تست ضربه حساس نیست. رادیوگرافی، انسداد کانال ریشه را نشان می‌دهد. سابقه ضربه در پرسش‌ها مشخص می‌شود.
+چه درمانی باید در نظر گرفته شود؟</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -16651,7 +16680,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>386960cc-16ab-4c43-a05c-77389db0818d</t>
+          <t>آنترول به دلیل کدام مکانیسم اثر به عنوان مسهل عمل می‌کند؟</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -16697,7 +16726,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>9fc31dbe-580f-4133-9d61-5ce5f1088c19</t>
+          <t>در استرابیسم همراه -</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -16744,7 +16773,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>e5eb084a-2019-483b-b5aa-4acf6ca8df32</t>
+          <t>یک بیمار با هموگلوبین 8 گرم درصد، شمارش گلبول‌های سفید 2000 بر میلی‌متر مکعب و شمارش پلاکت 60000 بر میلی‌متر مکعب مراجعه می‌کند. تشخیص احتمالی شما چیست؟</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -16796,7 +16825,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>4362fd22-8108-480c-943f-3d4d017d18b6</t>
+          <t>در روش استخراج سریال داول، مرحله دوم شامل چه کاری است؟</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -16840,7 +16869,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>57fd04ac-d3f6-429c-8b12-059bc890a2b3</t>
+          <t>منیزیم و بلوک عصبی-عضلانی: گزینه صحیح</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -16898,7 +16927,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>7dce8e87-7131-4276-a730-4ec29772febd</t>
+          <t>نوزاد بدون علامت با سابقه تماس با سل، 3 ماه سن دارد و 3 ماه شیمیوپروفیلاکسی دریافت کرده است، چه اقدام بعدی باید انجام شود؟</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -16954,7 +16983,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>a1ea9de3-ff5b-4458-b9da-1cff87d31767</t>
+          <t>بسته شدن آناتومیک مجرای شریانی (داکتوس آرتریوزوس) در چه زمانی کامل می‌شود؟</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -17008,7 +17037,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>997b6769-ec81-4a31-9541-affc47a9a0a8</t>
+          <t>همه موارد زیر در مورد پاپیلوم حنجره بزرگسالان صحیح است به جز -</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -17057,7 +17086,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>53ce7653-2757-4761-91e8-c88b2b6a613e</t>
+          <t>خط پرکین در تصویربرداری اشعه ایکس برای تشخیص کدام بیماری استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -17103,7 +17132,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>4c20ce2f-c04c-4ee5-8de8-5059463802b9</t>
+          <t>کدام ساختار از زیر رتیناکولوم فلکسور عبور نمی‌کند؟</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -17152,7 +17181,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>06e29cff-57f4-4127-a73a-e4242713aa56</t>
+          <t>بر اساس سرشماری سال 2011، نسبت جنسیتی کودکان کدام است؟</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -17207,7 +17236,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>29a3d693-c655-403e-b37e-c3ea7d78e995</t>
+          <t>اولین واحد ارجاع (fru) چیست؟</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -17249,7 +17278,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>4d479168-dc99-4de6-8775-854e41dedb80</t>
+          <t>یک دختر با نقاط عطف رشدی طبیعی زمان خود را صرف نگاه کردن به دست خود می‌کند و با دیگران تعامل ندارد. تشخیص احتمالی چیست؟</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -17306,7 +17335,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>1ddadcd5-6381-4657-b768-c0a9b89649f7</t>
+          <t>شاخص بلوغ در سیتولوژی واژینال یک روش تشخیصی برای ارزیابی چیست؟</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -17365,7 +17394,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>f4ed4193-352b-43a7-a30c-28c405e83138</t>
+          <t>تأخیر در رویش دندان‌ها همراه با دندان‌های اضافه متعدد در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -17415,7 +17444,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>e8007a1d-bda5-4dfb-a2d8-fb7631546e6e</t>
+          <t>علت‌های تنگی مجاری صفراوی عبارتند از: الف) کارسینوم مجرای صفراوی ب) پانکراتیت مزمن ج) پانکراتیت حاد د) تروما ه) سنگ مجرای صفراوی مشترک</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -17467,7 +17496,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>88f0f9d8-df54-4527-bdda-4bb7c701392b</t>
+          <t>در مورد لیکن پلانوس همه موارد زیر صحیح هستند به جز –</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -17520,7 +17549,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>309020b2-0165-4790-a8b0-b9d59a3ef409</t>
+          <t>شایع‌ترین محل درگیری آئورت صعودی در کدام آنوریسم است؟</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -17569,7 +17598,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>b5f2c4b6-5215-4c89-a649-59beec4bcd71</t>
+          <t>ولتاژ معمول ریتم آلفا چقدر است؟</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -17618,7 +17647,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>dc18dae1-8f5b-4bcf-bba8-dfce7141f135</t>
+          <t>کدام واکسن نباید به یک مرد مسن داده شود؟</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -17671,7 +17700,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>af714fe4-cea5-4924-a017-0f1f6c92ed45</t>
+          <t>کدام یک از داروهای زیر پدیده پنجره درمانی باریک را نشان می‌دهد؟</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -17723,7 +17752,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>fafccadc-a2ad-4a98-91f1-9fdcc0bf1284</t>
+          <t>ترشح پاتولوژیک نوک پستان بیشتر با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -17782,7 +17811,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>aa9362e5-71b4-4ace-8ca8-f1c08e8ec5c9</t>
+          <t>بهترین محیط برای تخمین زمان مرگ: مهاراشترا 09</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -17828,7 +17857,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>f1ac012d-72dc-4347-85e7-ccc75b3e40cf</t>
+          <t>نشانگر بیماری‌زایی استافیلوکوک چیست؟</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -17884,7 +17913,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>a2d592ab-a69c-43ee-b952-c402a07a20c1</t>
+          <t>کدام یک از گزینه‌های زیر برای درمان فوریت‌های پرفشاری خون به صورت داخل وریدی مفید نیست؟</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -17938,7 +17967,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>1cfc2a19-72f6-47a1-b14e-1e83bdc938ce</t>
+          <t>از تست گاتری می‌توان برای تشخیص کدام یک از موارد زیر استفاده کرد؟</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -17996,7 +18025,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>b81ac62a-c3bd-4c9d-9719-d9657d7caef3</t>
+          <t>نمونه‌ها برای تجزیه و تحلیل سم‌شناسی (شیمیایی) معمولاً با استفاده از چه ماده‌ای نگهداری می‌شوند؟</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -18043,7 +18072,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>3fd3d1e6-c150-43ad-be18-82665af82e65</t>
+          <t>کدام یک از موارد زیر به برجستگی بزرگ استخوان ران متصل نیست؟</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -18096,7 +18125,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>3a06ad30-ed8e-4231-8666-f11fbcfccdb9</t>
+          <t>هیپوپلازی ریوی همراه با مشکلات ادراری با کدام یک از موارد زیر مرتبط است؟</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -18147,7 +18176,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>76a20462-11d5-4395-b05f-d12c0170ef02</t>
+          <t>کدام یک از موارد زیر از عوارض جانبی پاروکستین نیست؟</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -18195,7 +18224,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>fa24f3d0-eb68-4cbe-9705-0c166a71d100</t>
+          <t>رشد استخوان از لبه‌های نقص با جذب تدریجی گرافت، نمونه‌ای از کدام مورد است؟</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -18239,7 +18268,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>a4bf661c-c54f-49c0-99c2-50e0c2bb2027</t>
+          <t>میزان بهینه خروجی ادرار در بیمار پس از عمل:-</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -18295,7 +18324,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>fd688292-8f32-4487-8815-f0faf73e93e2</t>
+          <t>ضریب فیلتراسیون 100٪ در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -18341,7 +18370,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>4f9d8d15-8b2e-4744-8c4e-ae497ed34d27</t>
+          <t>کدام گزینه برای یک پسر 8 ساله صحیح است؟</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -18398,7 +18427,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>eb7e269a-4eef-47c0-88ac-c3a1c1e0aa05</t>
+          <t>علامت رووسینگ در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -18443,7 +18472,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>0b3d45bc-a535-4002-827b-346b53ee7616</t>
+          <t>در شوک هیپوولمیک، درصد کاهش مایعات باید چقدر باشد؟</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -18500,7 +18529,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>a424f90f-b3c6-4fc7-ace0-3a7072c8d541</t>
+          <t>سندرم مدولای جانبی (سندرم والنبرگ) با همه موارد زیر مشخص می‌شود، به جز -</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -18549,7 +18578,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>47bdf07d-b88b-4186-93ce-dd28bb824a67</t>
+          <t>در مورد ریکتز کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -18609,7 +18638,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>0cad55d7-0655-4b6a-a640-1664aa650448</t>
+          <t>نوزادی با مایع آمنیوتیک آلوده به مکونیوم متولد می‌شود. تمام موارد زیر در تعریف نوزاد "پرانرژی" در نظر گرفته می‌شوند به جز:</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -18660,7 +18689,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>a231105a-49da-4d32-931b-3b6c10f7d057</t>
+          <t>بر اساس قانون اینتهوون:</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -18713,7 +18742,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>b97bb95d-820d-4d7f-a917-43f61e075676</t>
+          <t>کدام یک از موارد زیر در بیوپسی مزوتلیومای پلور یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -18762,7 +18791,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>d02e9b89-04d8-404c-b87e-24c091684acd</t>
+          <t>x، y و z سه یون قابل نفوذ از غشای سلولی هستند که x = -50 و y = -30. اگر در پتانسیل استراحت غشا (rmp)، هیچ انتقال الکتروژنیک خالصی وجود نداشته باشد، مقدار z چقدر است؟</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -18832,7 +18861,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>220d25ea-a29f-438c-8f53-805044a6f51c</t>
+          <t>incisura terminalis بین کدام نواحی قرار دارد؟</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -18897,7 +18926,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>8f3cacc6-2ceb-4bbc-94d5-ee7401653fba</t>
+          <t>یک پسر ۱۸ ساله در حال فوتبال بازی کردن بود که ناگهان زانویش پیچ خورد و روی زمین افتاد. پس از ۱۰ دقیقه بلند شد و دوباره شروع به بازی کرد، اما روز بعد زانویش متورم شد و نمی‌توانست آن را حرکت دهد. محتمل‌ترین علت چیست؟</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -18957,7 +18986,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>634539d4-f27f-4519-9261-c691a15f1f60</t>
+          <t>در مورد لوپوس ناشی از دارو کدام گزینه صحیح است؟</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -19007,7 +19036,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>8a2cef48-108a-48b3-9cda-44ed99ec6733</t>
+          <t>بهترین روش تصویربرداری برای مشاهده پیشابراه خلفی کدام است؟</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -19056,7 +19085,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>f1134e0b-61ed-4218-a91e-7069a5ef4de6</t>
+          <t>در فشار خون بارداری، فشار خون باید حداکثر تا چند هفته پس از زایمان به حالت طبیعی بازگردد؟</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -19110,7 +19139,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>9cc0ca70-970b-4472-8b27-9da277d2117c</t>
+          <t>شایع‌ترین تظاهر سنگ‌های دوطرفه حالب چیست؟</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -19170,7 +19199,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>0e8c9b4d-9373-44c4-ad1f-90405865d262</t>
+          <t>مصرف شیر بز فرد را مستعد کمبود کدام ماده می‌کند؟</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -19228,7 +19257,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>2949d44c-be17-4083-a034-6d4ff75ef019</t>
+          <t>سدیم 2-مرکاپتو اتان سولفونات به عنوان یک عامل محافظ در چه مواردی استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -19288,7 +19317,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>a5e63927-e725-4e61-8f86-3cceff9d17a4</t>
+          <t>زواید کند سلولی مشاهده شده بر روی آمیلوبلاست‌های در حال رشد چه نامیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -19337,7 +19366,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>b243f183-ece8-4f55-bc3a-a899e88967ec</t>
+          <t>سارکوم یوئینگ از کدام سلول ها منشأ می گیرد؟</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -19383,7 +19412,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>c7dc25f7-ffd5-4f9b-bd51-eeef47bcc046</t>
+          <t>داروی ضد صرع اخیراً تأیید شده لاکوزامید با کدام مکانیسم عمل می‌کند؟</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -19436,7 +19465,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>8e12f62e-e804-4f77-8cca-7804c4513058</t>
+          <t>فاسیکولاسیون در کدام مورد مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -19496,7 +19525,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>489e9aec-bada-42d8-a2b8-627a6b4f4721</t>
+          <t>شریان‌های مهره‌ای از کدام شریان منشأ می‌گیرند؟</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -19539,7 +19568,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>000333d1-cc05-42b1-81c2-e5470f9d718a</t>
+          <t>کدام یک از اعصاب زیر در عمل بلع نقش ندارد؟</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -19591,7 +19620,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>f25c9290-9aee-4aee-8696-dd573f74d258</t>
+          <t>مواد مهر و موم کننده حفره و بافت چگونه عمل می کنند؟</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -19640,7 +19669,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>636c0d49-d70b-41c7-98de-6abc9e044e65</t>
+          <t>ویژگی که بتاکسولول را از تیمولول متمایز می کند این است که بتاکسولول:</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -19692,7 +19721,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>a3c3a2d5-7598-48fd-8f6c-ad629ed7cc31</t>
+          <t>ضریب تنفسی مغز چقدر است؟</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -19742,7 +19771,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4ec3d9d4-5ffd-480b-8d09-6da1c6c56a59</t>
+          <t>شایع‌ترین ارگان درگیر در سل مادرزادی کدام است؟</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -19790,7 +19819,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>58840ff6-308d-49bd-ad40-0753bfd2045c</t>
+          <t>هیستوپلاسما کپسولاتوم چیست؟</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -19845,7 +19874,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>7298a0f2-058e-4d40-86cc-1577c87f129f</t>
+          <t>در مورد آکاتزیا صحیح است که</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -19901,7 +19930,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>f2ba6ebd-d1a4-484c-a176-cf44923bcbb5</t>
+          <t>استروئیدهای موضعی را می‌توان در کدام مورد استفاده کرد؟</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -19949,7 +19978,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>d0615de7-6f9e-4bc6-bc30-14c3760427be</t>
+          <t>عفونت مایکوپلاسما شبیه کدام یک از موارد زیر است؟</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -20006,7 +20035,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>c4a9c6a0-a8bf-4c83-94a8-7463340d080a</t>
+          <t>خشکی دهان در تمام موارد زیر دیده می‌شود به جز؟</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -20054,7 +20083,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>a49a3401-8b37-47cf-b8ce-b5787caf922f</t>
+          <t>سلول‌های لاکونار در کدام یک از موارد زیر دیده می‌شوند؟</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -20103,7 +20132,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>f40e6647-478c-47e4-a766-b300e3f97823</t>
+          <t>آنزیمی که برای ارزیابی میوپاتی‌ها استفاده می‌شود کدام است؟</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -20156,7 +20185,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>92659a1c-5537-4957-ba76-a9c6551a8730</t>
+          <t>آنتاگونیسم فیزیولوژیک در کدام مورد یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -20226,7 +20255,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>dca0925a-bc24-4ace-abfd-48666fcbb607</t>
+          <t>جراحی شکاف لب به طور ایده آل باید در چه زمانی انجام شود؟</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -20285,7 +20314,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>3f1659a2-13cb-47ae-a802-e0842006e619</t>
+          <t>مثال برای "میزبان تقویت‌کننده" -</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -20337,7 +20366,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>f4e97e71-44bf-41cb-bd09-24c99c4726d1</t>
+          <t>ندول‌های دالن فوخ در کدام مورد مشاهده می‌شوند؟</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -20386,7 +20415,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>b33a6a62-88c2-418f-a1df-e0490f457c39</t>
+          <t>کدام مسیر متابولیکی بخشی در میتوکندری و بخشی در سیتوپلاسم انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -20444,7 +20473,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>7cc4aecc-8bcd-4ce7-8b1a-c1c2597fab2c</t>
+          <t>کدام دارو در قرنیه رسوب نمی‌کند؟</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -20494,7 +20523,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>f6f819c6-bb16-4605-91e4-4f2a4019986f</t>
+          <t>کدام یک از موارد زیر یک ویژگی آناتومیک طبیعی دندان های پیشین فک پایین نیست؟</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -20546,7 +20575,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>f89158a5-d123-452b-9695-966b08794010</t>
+          <t>به طور معمول کدام دندان تا آخر در دهان باقی می ماند؟</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -20597,7 +20626,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>0a122f4c-afff-4f80-b875-34fb7fb15b56</t>
+          <t>یک مرد ۳۹ ساله در طول ۳ ماه گذشته خستگی مزمن و کاهش وزن را تجربه کرده است. در معاینه فیزیکی یافته‌ای قابل توجه مشاهده نشده است. آزمایشات آزمایشگاهی نشان‌دهنده هموگلوبین ۱۰.۰ گرم در دسی‌لیتر، هماتوکریت ۳۰.۳٪، mcv 91 میکرومتر مکعب، شمارش پلاکت ۲۴۰،۰۰۰ در میلی‌متر مکعب، شمارش گلبول‌های سفید ۷۵۵۰ در میلی‌متر مکعب، آهن سرم ۸۰ میلی‌گرم در دسی‌لیتر، ظرفیت کل اتصال آهن ۱۴۵ میلی‌گرم در دسی‌لیتر و فریتین سرم ۵۶۵ نانوگرم در میلی‌لیتر است. سطح اریتروپویتین سرم برای سطح هموگلوبین پایین است و سطح هپسیدین افزایش یافته است. کدام یک از موارد زیر محتمل‌ترین تشخیص است؟</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -20666,7 +20695,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>cf327e20-4b17-4c75-93b4-d3600885832b</t>
+          <t>دفورمیتی سه گانه زانو به طور کلاسیک در کدام مورد دیده می‌شود؟</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -20723,7 +20752,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>4685e7af-ffef-4acb-bd5c-53c8af6d5591</t>
+          <t>کدام یک از موارد زیر درون سلولی است؟</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -20770,7 +20799,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>0813f52f-e5da-4fd7-be3c-88baa4bab2ad</t>
+          <t>پاسخ فلر در پاسخ سه گانه به چه دلیل رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -20818,7 +20847,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>b4e2a75f-45b3-4009-8abc-46ffb6f49280</t>
+          <t>عضلات بین استخوانی کف دستی در کدام انگشت وجود ندارد؟</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -20874,7 +20903,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>039cfb73-ed02-48d5-9402-91cb407a1250</t>
+          <t>اگر نمونه ادرار جمع‌آوری شده برای آزمایش معمولی پس از مدتی تیره شود، محتمل‌ترین تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -20927,7 +20956,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>c3532c72-b80b-4cb4-97e3-53adfa3a90fb</t>
+          <t>در یک بیمار مبتلا به سندرم آنتی بادی ضد فسفولیپید، کدام یک از درمان های زیر برای جلوگیری از سقط جنین بیشتر استفاده می شود؟</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -20979,7 +21008,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>af6f3e57-d459-4c70-a35b-ae747f3c93bc</t>
+          <t>انتقال باکتری از طریق خون به ناحیه ای از پالپ قبلاً آسیب دیده یا تحریک شده که منجر به التهاب می‌شود، به عنوان چه چیزی شناخته می‌شود؟</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -21025,7 +21054,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>c04db3dc-fc35-4f0f-a5c9-fc20be723b2a</t>
+          <t>کدام یک از موارد زیر اصل هاردی-واینبرگ را تحت تأثیر قرار نمی‌دهد؟</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -21078,7 +21107,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>84e95971-819e-4247-a5df-0bce3c454700</t>
+          <t>مراحل متوالی برای جراحی استخوان برداری (resective osseous surgery) کدام است؟</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -21145,7 +21174,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>1c5ae9a0-5ef7-479d-a065-4fb76bd30c13</t>
+          <t>آلفا فتوپروتئین نشانگر کدام مورد است؟</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -21198,7 +21227,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>658088b6-9a4d-4459-8780-2b1268a8d9c7</t>
+          <t>شایع‌ترین محل برای کولیت ایسکمیک کدام است؟</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -21240,7 +21269,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>8d7fa9d7-af76-416e-a8d9-d6640a839701</t>
+          <t>گلومرولونفریت پس از استرپتوکوکی در کودکان چگونه تشخیص داده می‌شود؟</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -21304,7 +21333,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>743067b5-25c3-44c8-9abd-a9372657fb9c</t>
+          <t>آسیب ناشی از برخورد با داشبورد منجر به کدام مورد می‌شود؟</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -21348,7 +21377,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>f2674fe4-5b62-4ea9-8931-b9d91dcedbe0</t>
+          <t>اسکیزوفرنی یک تظاهر شایع در کدام بیماری ژنتیکی است؟</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -21399,7 +21428,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>e22b14dd-2002-4b95-b23f-b3499b5038f2</t>
+          <t>آگونیست‌های gnrh مورد استفاده در درمان لیومیوم، سطح پروژسترون را پس از چه مدت سرکوب می‌کنند؟</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -21442,7 +21471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>f0eec116-e716-447d-9a1a-641a1faf5730</t>
+          <t>این داروی آنتی‌هیستامین در دوزهای بالا با مسدود کردن کانال‌های پتاسیمی قلب می‌تواند باعث آریتمی قلبی شود. به احتمال زیاد کدام یک از گزینه‌های زیر است؟</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -21509,7 +21538,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>c77a7750-58bb-42d1-a881-3a1910cd532a</t>
+          <t>درمان انتخابی برای سنگ باقیمانده ۸ میلی‌متری مجرای صفراوی مشترک (cbd) چیست؟</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -21556,7 +21585,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>0459bc71-1575-4180-884e-d89eb7a329f8</t>
+          <t>آرامبخشی با اثر تسهیل کننده gaba اما بدون خواص ضد تشنج و شل کننده عضلانی و بدون تأثیر بر خواب کدام است؟</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -21611,7 +21640,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>5c45f906-f1ac-4617-9716-e5b6bd4ccce0</t>
+          <t>یک بیمار مرد 23 ساله با حالت تهوع، استفراغ و چهار دوره اسهال شل به درمانگاه مراجعه می‌کند. در تاریخچه‌گیری، او افشا می‌کند که 3 ساعت پیش از یک رستوران غذا مصرف کرده است. محتمل‌ترین عامل اتیولوژیک چیست؟</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -21667,7 +21696,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>90845d4e-4e9e-42dd-8e9f-37467b27a358</t>
+          <t>در مورد جذام پاسی باسیلاری، درمان کافی در نظر گرفته می‌شود اگر بیمار شش دوز ماهانه از درمان ترکیبی را در مدت زمان زیر دریافت کرده باشد:</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -21732,7 +21761,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>d44a8745-b8b3-47f1-93cc-cf150eb14ef0</t>
+          <t>ونچوریمتر برای اندازه گیری چه چیزی استفاده می شود؟</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -21778,7 +21807,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>af78d7d3-cb7a-4c9e-ad22-cfe40be06df8</t>
+          <t>کدام واکسن در دوران بارداری منع مصرف دارد؟</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -21834,7 +21863,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>a852e596-aa3c-4cff-a6a2-38eb3f8b6004</t>
+          <t>انورزیس ادامه دارد و بیمار تحت درمان با دسموپرسین استات (ddavp) قرار می‌گیرد. این دارو از طریق کدام یک از مکانیسم‌های زیر عمل می‌کند؟</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -21887,7 +21916,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>a64dca0b-6dda-4a02-bf96-cfa2ce2c81eb</t>
+          <t>یک بیمار مبتلا به سپسیس شکمی تحت درمان تجربی با آمپی سیلین داخل وریدی و جنتامایسین قرار گرفته است. در مورد درمان این بیمار، کدام گزینه دقیق‌تر است؟</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -21937,7 +21966,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>caa044a5-1c87-439b-96ab-805acec92271</t>
+          <t>یک زن ۲۶ ساله که در حال شیردهی است با شکایت از قرمزی و درد در ناحیه نوک پستان و اطراف آن همراه با ترشحات چرکی از نوک پستان به درمانگاه مراجعه کرده است. در کشت ترشحات، استافیلوکوکوس اورئوس رشد کرده است. کدام یک از عبارات زیر در مورد وضعیت بیمار صحیح است؟</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -21994,7 +22023,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>5fbe4127-91eb-49b2-abcd-7e760c6749d5</t>
+          <t>متابولیت های تریپتوفان می توانند منجر به کدام یک از موارد زیر شوند؟</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -22041,7 +22070,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>b31d7ef0-ee2e-4d96-a0af-c06ad3157577</t>
+          <t>کدام عامل بیهوشی داخل وریدی باید در بیماران با برونکواسپاسم اجتناب شود؟</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -22086,7 +22115,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>bb286773-2e31-4887-9073-d66698c459b9</t>
+          <t>درمان انتخابی برای کارسینوم آندومتر مرحله 1a درجه 1 چیست؟</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -22135,7 +22164,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>8a086284-523d-447a-8d03-c12225ef417e</t>
+          <t>کدام عامل القای بیهوشی، پایداری قلبی ایجاد می‌کند؟ به عبارت دیگر، بیهوشی پایدار از نظر قلبی کدام است؟</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -22188,7 +22217,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>29fbe032-49b3-4627-9943-c65018ed714b</t>
+          <t>راملال 45 ساله دچار سپسیس داخل شکمی است. عامل بیماری‌زا نسبت به وانکومایسین، جنتامایسین و آمپی‌سیلین مقاوم است. این ارگانیسم در حضور 6.5% nacl و آرژینین به خوبی رشد می‌کند. هیدرولیز بایل اسکولین مثبت است. کدام یک از گزینه‌های زیر این ارگانیسم است؟</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -22241,7 +22270,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>a5179967-c2e6-433f-a486-60bbf362d03a</t>
+          <t>یک دندان جدید در دهان کودک یک و نیم ساله در حال رویش است. این دندان به احتمال زیاد یک دندان شیری است از نوع:</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -22300,7 +22329,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>5667efb6-fdf1-45bf-a982-1f8cb9f8138c</t>
+          <t>بیماری بایسینوزیس ناشی از کدام مورد است؟ مارس 2010</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -22352,7 +22381,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>088e0510-c5b8-479c-896c-ea885642759f</t>
+          <t>کدام یک از تکنیک های زیر برای مطالعه جریان عبوری از یک کانال یونی منفرد استفاده می شود؟</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -22406,7 +22435,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>d100d64a-031f-4324-ad1f-38295e1bded6</t>
+          <t>همه موارد زیر در مورد سندرم لیز تومور صحیح هستند به جز:</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -22458,7 +22487,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>251a7b23-9f2a-4637-949d-47c5662284bd</t>
+          <t>کدام گزینه در کمک به تا شدن پروتئین نقش ندارد؟</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -22506,7 +22535,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>8ac2bc42-c7c0-4a61-bf94-82e28ec49279</t>
+          <t>سروتیپ‌های اوگاوا، اینابا و هیکوجیما متعلق به کدام باکتری هستند؟</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -22559,7 +22588,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>6fcf62ee-d171-48c2-8ce5-33b468565c3d</t>
+          <t>سردرد پس از سوراخ شدن سخت‌شامه، کدام گزینه درست است؟</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -22621,7 +22650,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>e6e1e845-d4e2-4537-8b2c-9c8ea846b95f</t>
+          <t>میزان تولید روزانه مایع مغزی-نخاعی (csf) چقدر است؟</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -22669,7 +22698,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>55ef54dc-4ab3-42d7-a3c5-56a73bf7581f</t>
+          <t>بهترین روش برای حذف مخدوش کننده ها چیست؟</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -22730,7 +22759,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>c924c932-6fa5-441f-85ce-05c789f4afc8</t>
+          <t>تفسیر بیوپسی دهانه رحم یک زن 50 ساله چیست؟ (غیر مرتبط با پاتولوژی)</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -22779,7 +22808,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>453c1c76-3d3c-481a-a573-fd50a567e179</t>
+          <t>همه داروهای زیر می‌توانند باعث ژنیکوماستی شوند به جز:</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -22827,7 +22856,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>4474d669-a460-4a9c-93d5-813710bb2e73</t>
+          <t>کدام یک از ساختارهای زیر از دیانسفالون مشتق شده است؟</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -22878,7 +22907,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>a3dd462f-3810-4df0-bafd-fced9204c4f7</t>
+          <t>زونولای زین چیست؟</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -22933,7 +22962,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>bbb2daab-9018-497b-aeb1-b248c85ed761</t>
+          <t>کدام گزینه نباید در افزایش فشار داخل چشمی (iot) مرتبط با یووئیت استفاده شود؟</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -22984,7 +23013,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>0fdf5e74-8e90-4d73-a345-b956ddb6ea3e</t>
+          <t>آزمایش گتلر در چه موردی انجام می‌شود؟</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -23032,7 +23061,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>c9aad448-c172-4cbb-87af-4c7d49359361</t>
+          <t>ژنوم اسید نوکلئیک با حس منفی در کدام یک یافت می‌شود؟  
+الف) پولیوویروس  
+ب) هاری  
+ج) سرخک  
+د) پیکورناویروس  
+ه) آنفلوانزا</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -23092,7 +23126,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>2f5f61ef-7c40-46f4-aabd-e2fcafc7c90e</t>
+          <t>محیط کشت مورد استفاده برای e.coli انتروهموراژیک o157:h7 کدام است؟</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -23139,7 +23173,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>4379112b-d842-4868-8708-4f10275f9b11</t>
+          <t>نوروپاتی راجعه در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -23185,7 +23219,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>e3df8f1d-b1aa-4c4e-a840-27b74820ae94</t>
+          <t>مادر در حال شیردهی به نوزاد 2 ماهه خود است. کدام یک از موارد دارویی زیر در مادر بعید است که باعث اثرات در نوزاد شیرخوار شود؟</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -23235,7 +23269,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>9fc31dbe-580f-4133-9d61-5ce5f1088c19</t>
+          <t>کدام یک از موارد زیر در شیر مادر در مقایسه با شیر گاو بیشتر است؟</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -23282,7 +23316,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>3ad191cd-1c85-45ed-a0f0-0dcef4585aba</t>
+          <t>شایع‌ترین علت انسداد روده در کودکان چیست؟</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -23342,7 +23376,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>e5eb084a-2019-483b-b5aa-4acf6ca8df32</t>
+          <t>تومور ناشی از مخاط بویایی بینی</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -23395,7 +23429,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>a1ea9de3-ff5b-4458-b9da-1cff87d31767</t>
+          <t>تمامی عبارات زیر در مورد وارفارین صحیح هستند به جز:</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -23447,7 +23481,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>26c424c5-8828-4f9d-8366-de4b86cf4b29</t>
+          <t>همه موارد زیر نوروپاتی حرکتی غالب هستند به جز -</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -23499,7 +23533,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>4c20ce2f-c04c-4ee5-8de8-5059463802b9</t>
+          <t>همه موارد زیر در آسیب به عصب پرونئال مشترک دیده می‌شوند به جز؟</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -23550,7 +23584,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>06e29cff-57f4-4127-a73a-e4242713aa56</t>
+          <t>کدام یک از باکتری‌های گرم منفی بی‌هوازی است: سپتامبر 2007</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -23600,7 +23634,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>29a3d693-c655-403e-b37e-c3ea7d78e995</t>
+          <t>یک مرد ۲۴ ساله مبتلا به صرع، پس از یک تشنج با درد در ناحیه شانه راست مراجعه کرده است. معاینه نشان می‌دهد که اندام فوقانی راست در حالت اداکشن و چرخش داخلی قرار دارد و حرکات قابل انجام نیستند. کدام یک از موارد زیر محتمل‌ترین تشخیص است؟</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -23651,7 +23685,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>4d479168-dc99-4de6-8775-854e41dedb80</t>
+          <t>آزمایش nestrof برای غربالگری کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -23710,7 +23744,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>f4ed4193-352b-43a7-a30c-28c405e83138</t>
+          <t>تشخیص را مشخص کنید:</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -23773,7 +23807,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>b63f5666-c253-4f17-a259-2b0777b5e330</t>
+          <t>مرحله جنینی از چه زمانی شروع می‌شود؟</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -23830,7 +23864,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>f8ca0f60-9e78-40bf-8b76-762d6947e64a</t>
+          <t>یک نوزاد 1 ماهه با فتق نافی به مطب شما مراجعه می‌کند. این فتق قابل جاانداختن است اما تقریباً بلافاصله دوباره بیرون می‌زند. کدام یک از گزینه‌های زیر در مورد این نقص صحیح است؟</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -23888,7 +23922,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>a5e0f0e7-0412-4f1b-bd3c-2c7b1e8e4406</t>
+          <t>کدام یک از آییودی‌های زیر به مدت 10 سال مؤثر است؟</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -23942,7 +23976,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>fc07251d-35c0-4cb9-b156-8d303cf28a21</t>
+          <t>جداسازی آلبومینو سیتولوژیک در کدام یک از موارد زیر رخ می‌دهد؟</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -23990,7 +24024,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>36c00e39-a06f-48b5-9893-114a9545f1d8</t>
+          <t>در مورد پاپیلومای نوجوانان کدام گزینه/گزینه‌ها صحیح است/هستند؟ الف) منفرد ب) متعدد ج) در کودکان دیده می‌شود د) عودکننده ه) مرتبط با hpv</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -24044,7 +24078,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>e8007a1d-bda5-4dfb-a2d8-fb7631546e6e</t>
+          <t>ملانوز مخاطی و پولیپ های هامارتوما در کدام مورد دیده می شوند؟</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -24102,7 +24136,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>57a28285-309c-46e1-9e99-4216cb0818f0</t>
+          <t>نیمه عمر پلاسمایی کاربیمازول چقدر است؟</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -24158,7 +24192,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>798e154e-3279-45d8-b342-bdc264afa10c</t>
+          <t>سیلندر گاز با پین ایندکس تک -</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -24211,7 +24245,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>309020b2-0165-4790-a8b0-b9d59a3ef409</t>
+          <t>ویژگی‌های مشخصه سندرم کمپارتمان حاد در ساق پا شامل همه موارد زیر است به جز</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -24266,7 +24300,11 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>b5f2c4b6-5215-4c89-a649-59beec4bcd71</t>
+          <t>دیمیلینه شدن در کدام یک از موارد زیر مشاهده می‌شود؟  
+الف) مالتیپل اسکلروزیس  
+ب) ایدز  
+ج) انسفالوپاتی لکوئید انسانی  
+د) لوکودیستروفی</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -24320,7 +24358,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>fafccadc-a2ad-4a98-91f1-9fdcc0bf1284</t>
+          <t>همه موارد زیر از محتویات کانال ادداکتور هستند، به جز:</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -24369,7 +24407,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>aa9362e5-71b4-4ace-8ca8-f1c08e8ec5c9</t>
+          <t>نادرست در مورد اکتینومیست‌ها.</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -24424,7 +24462,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>f1ac012d-72dc-4347-85e7-ccc75b3e40cf</t>
+          <t>کدام عضله توسط عصب جمجمه ای iii عصب دهی نمی شود؟</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -24482,7 +24520,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>a2d592ab-a69c-43ee-b952-c402a07a20c1</t>
+          <t>یک مرد 30 ساله با شکایت از تاری دید یک طرفه و مگس پران از 15 روز پیش مراجعه کرده است. در معاینه، فلر و سلول در اتاق قدامی دیده می‌شود و در افتالموسکوپی غیرمستقیم، ظاهر "چراغ جلو در مه" مشاهده می‌شود. همچنین، یک کانون التهابی منفرد از ضایعه رتینوکوروئیدیت پف‌کرده دیده می‌شود. تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -24541,7 +24579,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>1cfc2a19-72f6-47a1-b14e-1e83bdc938ce</t>
+          <t>دررفتگی مکرر بیشتر در مفصل شانه شایع است. کدام یک از موارد زیر علت مهمی برای این عارضه محسوب نمی‌شود؟</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -24589,7 +24627,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>b81ac62a-c3bd-4c9d-9719-d9657d7caef3</t>
+          <t>کراتوپاتی حلقوی (whorled keratopathy) با استفاده از کدام دارو مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -24640,7 +24678,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>3b9e40a1-6785-4b40-8c74-eb5b4661ab29</t>
+          <t>ضایعات هایپرپیگمانته عبارتند از</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -24687,7 +24725,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>3a06ad30-ed8e-4231-8666-f11fbcfccdb9</t>
+          <t>کدام یک از انواع واکنش‌های حساسیت زیر در واکنش تزریق خون یافت می‌شود؟</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -24738,7 +24776,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>96c35e24-94a0-4088-9253-6e7169759c40</t>
+          <t>دیوی، یک زن 28 ساله، اسهال، گیجی، تب درجه بالا و پنومونی دو طرفه دارد. تشخیص چیست؟</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -24794,7 +24832,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>76a20462-11d5-4395-b05f-d12c0170ef02</t>
+          <t>استخوان‌های ورمیانی در تمام موارد زیر دیده می‌شوند به جز</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -24842,7 +24880,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>fa24f3d0-eb68-4cbe-9705-0c166a71d100</t>
+          <t>کدام یک از عوارض زیر پس از انتقال چند واحد خون محتمل است؟</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -24889,7 +24927,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>4f9d8d15-8b2e-4744-8c4e-ae497ed34d27</t>
+          <t>فشار خون شتاب‌یافته منجر به چه می‌شود؟</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -24948,7 +24986,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>eb7e269a-4eef-47c0-88ac-c3a1c1e0aa05</t>
+          <t>علامت "double bubble" در کدام یک از موارد زیر مشاهده می‌شود؟</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -24995,7 +25033,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>3627b952-5134-43c5-a73a-3f86454d20d3</t>
+          <t>بیمار در هنگام ورزش و قرار گرفتن در معرض نور خورشید دچار کهیر مکرر می‌شود. کدام یک از موارد زیر محتمل‌ترین علت است؟</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -25051,7 +25089,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>0b3d45bc-a535-4002-827b-346b53ee7616</t>
+          <t>کدام یک از موارد زیر در مورد تغییرات هورمونی در طول چرخه قاعدگی طبیعی نادرست است؟</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -25099,7 +25137,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>f5026f90-9c6e-48a6-9b09-d6229afb55eb</t>
+          <t>نرخ مرگ و میر پری ناتال شامل چه مواردی است؟</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -25147,7 +25185,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>47bdf07d-b88b-4186-93ce-dd28bb824a67</t>
+          <t>بال به عنوان پادزهر مسمومیت با کدام مورد استفاده می‌شود؟</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -25200,7 +25238,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>0cad55d7-0655-4b6a-a640-1664aa650448</t>
+          <t>بر اساس سیستم انکینگ، مورد نادرست در مورد تومور خوش‌خیم فعال کدام است؟</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -25248,7 +25286,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>b97bb95d-820d-4d7f-a917-43f61e075676</t>
+          <t>مقیاس وضعیت اجتماعی-اقتصادی/ مسکن که برای مناطق روستایی توسعه یافته است کدام است؟</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -25294,7 +25332,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>0f6e2f1d-6a4f-45d2-85a3-5ecb97c5d8fc</t>
+          <t>رشد پستان به دلیل اثر کدام هورمون است؟</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -25347,7 +25385,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>bf73c025-3970-4532-9b76-6aee7828abb0</t>
+          <t>کدام دارو اثربخشی اثبات شده در افسردگی دوقطبی دارد؟</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -25405,7 +25443,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>420a92a7-2d74-4c10-9f9a-23647d11119b</t>
+          <t>سلول‌های نارسایی قلبی در کدام قسمت یافت می‌شوند؟</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -25450,7 +25488,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>8f3cacc6-2ceb-4bbc-94d5-ee7401653fba</t>
+          <t>در یک سیستم بسته، هاگ‌ها در کدام یک از مراحل زیر از رشد باکتریایی تشکیل می‌شوند؟</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -25511,7 +25549,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>634539d4-f27f-4519-9261-c691a15f1f60</t>
+          <t>تمامی موارد زیر در مورد بیحسی کودال صحیح است به جز-</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -25561,7 +25599,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>59c3f803-6604-4f03-a615-79b3150b5a48</t>
+          <t>تمام موارد زیر از مزایای استفاده از رالوکسیفن نسبت به استروژن در زنان یائسه هستند به جز:</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -25614,7 +25652,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>8a2cef48-108a-48b3-9cda-44ed99ec6733</t>
+          <t>شایع‌ترین محل سرطان روده بزرگ کدام است؟</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -25659,7 +25697,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>8d5f9d0b-be6c-4cab-8a4c-8be48b159ba3</t>
+          <t>کدام آزمایش باید در یک مورد اثبات‌شده از نکروز پاپیلاری کلیوی اجتناب شود؟</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -25711,7 +25749,11 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>98fdb8a2-4810-447a-9942-5f3c15b0f01a</t>
+          <t>استفراغ مداوم در g.o.o. باعث می‌شود -  
+a) هیپوناترمی هیپرکلرمی رخ دهد  
+b) هیپرناترمی بدون آلکالوز هیپوکلرمی  
+c) آلکالوز متابولیک هیپوکالمی  
+d) اسیدوری پارادوکسیکال</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
